--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ25111141" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26530997" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ27997141" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29435745" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ30952116" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32545580" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34182049" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35762611" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37257412" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38021122" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ39537067" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ41001519" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ42663851" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44403726" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46191502" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47699930" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ49215385" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50746076" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7264.301668072279</v>
+        <v>7344.876021268332</v>
       </c>
       <c r="C2" t="n">
-        <v>3.316883429978215e-41</v>
+        <v>4.384233614676451e-42</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.7619810758176</v>
+        <v>323.7571617370423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6805995576181771</v>
+        <v>0.3121875888068407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>735.9411668323139</v>
+        <v>1040.941383491593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02611726320917241</v>
+        <v>0.001149655998291537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1057.308180354416</v>
+        <v>-379.3415028481562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009550227018129404</v>
+        <v>0.4813952570520416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-370.4696144536962</v>
+        <v>94.05884674993311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4915223968281143</v>
+        <v>0.001112013870015863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.80820557072505</v>
+        <v>-1267.8072009044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001009402609913066</v>
+        <v>2.605772409784918e-64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1279.300914129288</v>
+        <v>-31.70895519290679</v>
       </c>
       <c r="C8" t="n">
-        <v>1.950821892515999e-65</v>
+        <v>1.827084077351665e-22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-30.40486680248225</v>
+        <v>226.5213678338935</v>
       </c>
       <c r="C9" t="n">
-        <v>1.118475115700365e-20</v>
+        <v>2.453554898718435e-28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.3261395186449</v>
+        <v>470.332224653144</v>
       </c>
       <c r="C10" t="n">
-        <v>7.81231942970106e-28</v>
+        <v>1.209287282173495e-306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>473.3343697289937</v>
+        <v>-0.03934679401509648</v>
       </c>
       <c r="C11" t="n">
-        <v>5.472218590711088e-310</v>
+        <v>0.0006725894935679446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03851573139201677</v>
+        <v>5.563381605994959e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008690700249402804</v>
+        <v>0.0002195958666782807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.431059999764586e-05</v>
+        <v>-24.38005801714057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000308010579159806</v>
+        <v>2.371865050978123e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.33103119546714</v>
+        <v>11.05603523449003</v>
       </c>
       <c r="C14" t="n">
-        <v>2.73865631060339e-21</v>
+        <v>1.049194056814308e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.13716503816857</v>
+        <v>-2122.787873847982</v>
       </c>
       <c r="C15" t="n">
-        <v>8.956679836089752e-06</v>
+        <v>1.006826562442782e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2077.715379182302</v>
+        <v>-100.3662852641645</v>
       </c>
       <c r="C16" t="n">
-        <v>2.038047417863544e-08</v>
+        <v>0.7088886031398687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-103.0023986509721</v>
+        <v>1843.314391343497</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7014817293607137</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1854.264118210818</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.174942703329956e-11</v>
+        <v>4.21288508442918e-11</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7265.480074752285</v>
+        <v>7339.958821271252</v>
       </c>
       <c r="C2" t="n">
-        <v>7.907174911088794e-41</v>
+        <v>1.216237337178281e-41</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.0044307430476</v>
+        <v>408.0449968896335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4692797126163291</v>
+        <v>0.2038249769702677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.1460789094681</v>
+        <v>1131.744930035627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01961817594784629</v>
+        <v>0.0004209146367685867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.55897769772</v>
+        <v>-441.3126751206117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003518223700061134</v>
+        <v>0.4170741707868201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433.7830726836453</v>
+        <v>97.08700048015882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4249079533544717</v>
+        <v>0.0007636334908154909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.32761513079011</v>
+        <v>-1233.089191376683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006504046185292975</v>
+        <v>6.675611899731643e-61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1245.141926818223</v>
+        <v>-32.7611027211976</v>
       </c>
       <c r="C8" t="n">
-        <v>5.092448551718471e-62</v>
+        <v>6.659438851715402e-24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.55348851578019</v>
+        <v>214.1706274022654</v>
       </c>
       <c r="C9" t="n">
-        <v>3.653227399400996e-22</v>
+        <v>2.719558273272675e-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.0577030703779</v>
+        <v>471.7587009283395</v>
       </c>
       <c r="C10" t="n">
-        <v>4.639634725065879e-25</v>
+        <v>2.223428935963108e-308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>474.3360854039466</v>
+        <v>-0.02992202749470708</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.008879392112604243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02923744274919531</v>
+        <v>2.852151157373207e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01054392969585824</v>
+        <v>0.05171411573594467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.742931435337412e-05</v>
+        <v>-24.88392094422258</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06128989745611461</v>
+        <v>4.856812880979369e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.83882827291481</v>
+        <v>10.26950493831449</v>
       </c>
       <c r="C14" t="n">
-        <v>5.577193526771827e-22</v>
+        <v>5.325723623499162e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.32714170107528</v>
+        <v>-2028.668673003302</v>
       </c>
       <c r="C15" t="n">
-        <v>4.805639830719261e-05</v>
+        <v>4.487685801885619e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1988.831986624853</v>
+        <v>121.7606123937073</v>
       </c>
       <c r="C16" t="n">
-        <v>8.165374705860705e-08</v>
+        <v>0.6511354502547028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124.522717477629</v>
+        <v>1828.876179394862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6436492969781674</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1827.901791587645</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.266198733610979e-11</v>
+        <v>5.223331117546219e-11</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7373.24314931039</v>
+        <v>7450.034963452632</v>
       </c>
       <c r="C2" t="n">
-        <v>3.798708164793719e-42</v>
+        <v>5.540115446969016e-43</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.73957871668262</v>
+        <v>256.6606158258093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8583375050163543</v>
+        <v>0.4161257480414109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>681.2278082346669</v>
+        <v>1046.250490605392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03675564767246686</v>
+        <v>0.0009114153075562278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1064.038411848504</v>
+        <v>-637.0072156477687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007400968935378064</v>
+        <v>0.2383250279730338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627.078297359207</v>
+        <v>115.2401254354702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.245504239423842</v>
+        <v>6.947484114383155e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.3173573804525</v>
+        <v>-1366.7866630516</v>
       </c>
       <c r="C7" t="n">
-        <v>6.816583239572034e-05</v>
+        <v>4.019643305012402e-74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1380.359648582525</v>
+        <v>-29.64336530860326</v>
       </c>
       <c r="C8" t="n">
-        <v>1.564928938037997e-75</v>
+        <v>8.92771168825753e-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.18253677419038</v>
+        <v>229.8644293503561</v>
       </c>
       <c r="C9" t="n">
-        <v>6.43990934049116e-18</v>
+        <v>6.388207817199356e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.5017286085093</v>
+        <v>461.0684565803853</v>
       </c>
       <c r="C10" t="n">
-        <v>2.239691243970204e-28</v>
+        <v>1.81111996507502e-295</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>464.1637608294474</v>
+        <v>-0.02197247251113743</v>
       </c>
       <c r="C11" t="n">
-        <v>6.636370361026338e-299</v>
+        <v>0.05592271281203372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02086072931773132</v>
+        <v>3.143683897729575e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06945577130278338</v>
+        <v>0.03187158614267784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.97175057447166e-05</v>
+        <v>-24.33464615691724</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04245099441363256</v>
+        <v>2.74856356798991e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-24.32596020574127</v>
+        <v>10.81716943231395</v>
       </c>
       <c r="C14" t="n">
-        <v>2.721513714344806e-21</v>
+        <v>2.067886211951047e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85711277015066</v>
+        <v>-1884.910173211241</v>
       </c>
       <c r="C15" t="n">
-        <v>1.910339595009269e-05</v>
+        <v>3.29193767743475e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1833.103796750813</v>
+        <v>-193.7950425834803</v>
       </c>
       <c r="C16" t="n">
-        <v>6.831249892661176e-07</v>
+        <v>0.4732500136463621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-198.6571887556041</v>
+        <v>1759.12320764898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4620147297530652</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1767.68721731166</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.147601126592955e-10</v>
+        <v>3.897863671556463e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8306.717725255452</v>
+        <v>8383.282894219778</v>
       </c>
       <c r="C2" t="n">
-        <v>5.355128303179135e-53</v>
+        <v>6.167695529607815e-54</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-138.0592088115895</v>
+        <v>57.02506618564968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6639260177253181</v>
+        <v>0.856570813945716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467.485042838206</v>
+        <v>799.7124138796153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1512751451783802</v>
+        <v>0.01122296467410501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.5538741951857</v>
+        <v>-645.0386566999487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009595193289944907</v>
+        <v>0.2298858503913279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-637.6409674493111</v>
+        <v>83.1686512818313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2350655533901291</v>
+        <v>0.003832063237174039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.59570231760374</v>
+        <v>-1226.563580161706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003256279760890104</v>
+        <v>1.075755845162873e-60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1240.31699788515</v>
+        <v>-35.36841544655189</v>
       </c>
       <c r="C8" t="n">
-        <v>5.471598587130347e-62</v>
+        <v>6.870817567634721e-28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.09914921836612</v>
+        <v>200.044892890233</v>
       </c>
       <c r="C9" t="n">
-        <v>6.449421917753856e-26</v>
+        <v>1.413033511714784e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>197.4599284001769</v>
+        <v>457.1298667337277</v>
       </c>
       <c r="C10" t="n">
-        <v>4.812450401968483e-22</v>
+        <v>6.118372573384379e-297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>460.4763756205183</v>
+        <v>-0.02421147371636777</v>
       </c>
       <c r="C11" t="n">
-        <v>1.447548000951148e-300</v>
+        <v>0.03385014803913247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02352933061390071</v>
+        <v>3.187324512644585e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03912656409982254</v>
+        <v>0.02867739270255738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.046286481298686e-05</v>
+        <v>-26.42131179128713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03647102978534401</v>
+        <v>8.305782702721639e-25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-26.39296623109551</v>
+        <v>8.26751383448204</v>
       </c>
       <c r="C14" t="n">
-        <v>8.879920130921492e-25</v>
+        <v>0.001218115934909651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.339140822168998</v>
+        <v>-2138.89154945342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001098383118649065</v>
+        <v>7.911897215311095e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2092.702363225484</v>
+        <v>-328.0813460839112</v>
       </c>
       <c r="C16" t="n">
-        <v>1.636683822814439e-08</v>
+        <v>0.2200790656909321</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-328.7259752189635</v>
+        <v>1838.896437128906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2189676317405403</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1852.526557238848</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.33081926738072e-11</v>
+        <v>4.711983587788257e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7225.358863204946</v>
+        <v>7297.25778741349</v>
       </c>
       <c r="C2" t="n">
-        <v>3.923795090971798e-41</v>
+        <v>6.361881473415307e-42</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.1231559900308</v>
+        <v>427.3643259407103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4265118371587349</v>
+        <v>0.1693587691678856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>804.2639284799645</v>
+        <v>1154.292786958138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01239617288261551</v>
+        <v>0.0002046818721121414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1170.330213177951</v>
+        <v>-130.4414897437127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000165959775976923</v>
+        <v>0.8081347466236816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122.4467219040805</v>
+        <v>69.98584775612943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8196211245743305</v>
+        <v>0.01567975346982479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.15041502825004</v>
+        <v>-1288.577244842358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01399875292451814</v>
+        <v>8.705174810399223e-66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1300.164621216438</v>
+        <v>-28.49731684715046</v>
       </c>
       <c r="C8" t="n">
-        <v>6.566948070662101e-67</v>
+        <v>2.022611563622621e-18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.21623717503844</v>
+        <v>193.4864153285128</v>
       </c>
       <c r="C9" t="n">
-        <v>7.741517151127761e-17</v>
+        <v>3.608322425895579e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.7075675980825</v>
+        <v>466.5204325456031</v>
       </c>
       <c r="C10" t="n">
-        <v>8.089495558149824e-21</v>
+        <v>2.285128294586967e-300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469.2400550006926</v>
+        <v>-0.02474203680382851</v>
       </c>
       <c r="C11" t="n">
-        <v>2.60913800671981e-303</v>
+        <v>0.03292863197754009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02425723230167978</v>
+        <v>3.003329202599359e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03645260833523573</v>
+        <v>0.04267740134281089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.902656185378285e-05</v>
+        <v>-25.26805567960216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05006359609281973</v>
+        <v>1.093860918419827e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-25.25373092056477</v>
+        <v>12.31415552022722</v>
       </c>
       <c r="C14" t="n">
-        <v>1.115330684161833e-22</v>
+        <v>1.032257979805972e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.32679880289601</v>
+        <v>-1899.783533899328</v>
       </c>
       <c r="C15" t="n">
-        <v>9.971840238010504e-07</v>
+        <v>3.305323627609291e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1863.49025267825</v>
+        <v>-201.0630434308958</v>
       </c>
       <c r="C16" t="n">
-        <v>5.489426932489227e-07</v>
+        <v>0.4558319707730234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-197.1331258855823</v>
+        <v>1786.751474358027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4645245928968371</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1795.268222281221</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.164666543526203e-10</v>
+        <v>1.444622923581005e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6992.623855776186</v>
+        <v>7052.325724229465</v>
       </c>
       <c r="C2" t="n">
-        <v>1.148441398460211e-37</v>
+        <v>2.815219876717842e-38</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>397.1050521079507</v>
+        <v>574.1254820328568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2204468758958121</v>
+        <v>0.07439072280796016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>942.5976646401296</v>
+        <v>1246.224883641486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004524949173972744</v>
+        <v>0.0001067563945184178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1260.447536682301</v>
+        <v>-17.08429082236432</v>
       </c>
       <c r="C5" t="n">
-        <v>8.851284575801559e-05</v>
+        <v>0.9747167602306543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.998438183700443</v>
+        <v>111.7443223853287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9851964118518732</v>
+        <v>0.0001250378202724669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.4373382140855</v>
+        <v>-1265.241750057644</v>
       </c>
       <c r="C7" t="n">
-        <v>9.812538806810064e-05</v>
+        <v>3.104480359576469e-63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1278.270025325235</v>
+        <v>-29.89581307912667</v>
       </c>
       <c r="C8" t="n">
-        <v>1.891857199396773e-64</v>
+        <v>5.119840077164886e-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.75407931632522</v>
+        <v>216.042956468239</v>
       </c>
       <c r="C9" t="n">
-        <v>1.516133096235758e-18</v>
+        <v>2.368074170090413e-25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.852462448829</v>
+        <v>471.637068960906</v>
       </c>
       <c r="C10" t="n">
-        <v>7.056162239115502e-25</v>
+        <v>5.790987867582013e-307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>474.4102691374997</v>
+        <v>-0.03708146786765322</v>
       </c>
       <c r="C11" t="n">
-        <v>6.186717992645447e-310</v>
+        <v>0.001266190479823077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03642168234510106</v>
+        <v>4.188426960651807e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001539956662828548</v>
+        <v>0.004171989298661385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.038576645820502e-05</v>
+        <v>-23.71347639890465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00573383907960521</v>
+        <v>4.841982858566262e-20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-23.66967170999613</v>
+        <v>10.38007139729782</v>
       </c>
       <c r="C14" t="n">
-        <v>5.500096364058311e-20</v>
+        <v>3.798111317145922e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.37373712028749</v>
+        <v>-1712.544551050877</v>
       </c>
       <c r="C15" t="n">
-        <v>3.815656559836079e-05</v>
+        <v>4.541255498477318e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1670.765338080715</v>
+        <v>-85.12557656329398</v>
       </c>
       <c r="C16" t="n">
-        <v>7.701852430532766e-06</v>
+        <v>0.7532590987510728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-86.71620522580122</v>
+        <v>1885.895339792025</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7487171991544543</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1891.144667093442</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.365194975900454e-11</v>
+        <v>1.578585708980892e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7481.297522631561</v>
+        <v>7547.596971854405</v>
       </c>
       <c r="C2" t="n">
-        <v>3.070600504833952e-44</v>
+        <v>5.417267851270373e-45</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-35.6617949618738</v>
+        <v>142.4276879584349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.908553725571019</v>
+        <v>0.6439206254461407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.5803897645002</v>
+        <v>913.6207077941997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1044343030332881</v>
+        <v>0.003000890785485994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>928.4332402757028</v>
+        <v>198.0441972130462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00255546980744937</v>
+        <v>0.7083496002220342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207.0484778462571</v>
+        <v>74.97141015526012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6956329836354741</v>
+        <v>0.008879009910274892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.01799961051064</v>
+        <v>-1277.325147862748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007952207477963047</v>
+        <v>1.029721578847118e-65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1288.781587550986</v>
+        <v>-28.69557707364763</v>
       </c>
       <c r="C8" t="n">
-        <v>7.833688453494601e-67</v>
+        <v>6.691291345351033e-19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.53454185648647</v>
+        <v>191.9146258384766</v>
       </c>
       <c r="C9" t="n">
-        <v>1.927982580347432e-17</v>
+        <v>8.956338744147258e-21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9527589751022</v>
+        <v>478.5380168278284</v>
       </c>
       <c r="C10" t="n">
-        <v>2.168887651430977e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>481.2577698562085</v>
+        <v>-0.03047559105874237</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.007741515206829174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02999031181134013</v>
+        <v>3.263117458835574e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008752071182566209</v>
+        <v>0.02514204683273005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.153827206304751e-05</v>
+        <v>-23.62666209381725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03040857471031712</v>
+        <v>4.339498368171979e-20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-23.63150267163538</v>
+        <v>11.08904556081246</v>
       </c>
       <c r="C14" t="n">
-        <v>4.133069243131575e-20</v>
+        <v>1.138455819518215e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.13750665617299</v>
+        <v>-2022.715952061873</v>
       </c>
       <c r="C15" t="n">
-        <v>1.034622905368285e-05</v>
+        <v>4.181398871121494e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1979.109452998442</v>
+        <v>-298.5528430752776</v>
       </c>
       <c r="C16" t="n">
-        <v>8.092604760719203e-08</v>
+        <v>0.2644302205310211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-298.7691021325742</v>
+        <v>1977.558457348767</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2639087919384366</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1987.534548614046</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.543536450164544e-13</v>
+        <v>8.665319665603036e-13</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7141.642900818322</v>
+        <v>7198.89727812661</v>
       </c>
       <c r="C2" t="n">
-        <v>4.911305941287905e-40</v>
+        <v>1.200100433910197e-40</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.20614565334836</v>
+        <v>132.5159379063849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9061338038582406</v>
+        <v>0.672236151343288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.5058121940457</v>
+        <v>881.4405146287952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1318902483606549</v>
+        <v>0.004866745632166399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.4946452046592</v>
+        <v>359.6868353514654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004175619528256892</v>
+        <v>0.5227206489025532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.1872960583721</v>
+        <v>112.2239848716176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.511662182376745</v>
+        <v>9.071782537547294e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.5835470689433</v>
+        <v>-1242.331816597542</v>
       </c>
       <c r="C7" t="n">
-        <v>8.566013597069619e-05</v>
+        <v>2.23100464040638e-62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1253.734449241423</v>
+        <v>-30.70016629611666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.876306361296244e-63</v>
+        <v>1.457034290869568e-21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.49634418435602</v>
+        <v>227.9538985218442</v>
       </c>
       <c r="C9" t="n">
-        <v>6.608138757465316e-20</v>
+        <v>2.745486799574254e-28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>225.4617236486102</v>
+        <v>474.2429770769469</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045411431273273e-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>476.7537894886877</v>
+        <v>-0.02472594072255496</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.03098523572594359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02434845122017158</v>
+        <v>2.976782171805259e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0335888433619097</v>
+        <v>0.0418849078412347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.893347302055104e-05</v>
+        <v>-22.381688739183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04791484229710873</v>
+        <v>4.702237164578535e-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.40767829110458</v>
+        <v>12.0711314056946</v>
       </c>
       <c r="C14" t="n">
-        <v>4.199176849665727e-18</v>
+        <v>3.004521100927499e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.07759159134408</v>
+        <v>-1824.010601881515</v>
       </c>
       <c r="C15" t="n">
-        <v>2.945900712839619e-06</v>
+        <v>7.499555108281641e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1790.190037424103</v>
+        <v>-278.8095285392694</v>
       </c>
       <c r="C16" t="n">
-        <v>1.193071043603113e-06</v>
+        <v>0.2985894030147972</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-276.726503423254</v>
+        <v>1865.794970419312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3020545411021522</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1864.627173795144</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.451775162170248e-11</v>
+        <v>1.431964935192727e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7847.342078939702</v>
+        <v>7918.091528690138</v>
       </c>
       <c r="C2" t="n">
-        <v>1.805111298027829e-47</v>
+        <v>2.739612712789791e-48</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.0950759647888</v>
+        <v>291.61096459388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7569764121174584</v>
+        <v>0.3688147761048496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.6034823277155</v>
+        <v>1104.289345065608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03948437823192754</v>
+        <v>0.0006623982790777659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1121.136758692711</v>
+        <v>-699.3992267927104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005444533206737404</v>
+        <v>0.1980663368895885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689.6666959775703</v>
+        <v>98.7096440449785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2041932384920341</v>
+        <v>0.0006061229363548395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.02862959097699</v>
+        <v>-1223.232614075549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005787671172783695</v>
+        <v>1.946858841337846e-60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1237.001081945543</v>
+        <v>-30.13221639664131</v>
       </c>
       <c r="C8" t="n">
-        <v>1.011566963440269e-61</v>
+        <v>1.401615417496825e-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.83873560904171</v>
+        <v>198.8366677891588</v>
       </c>
       <c r="C9" t="n">
-        <v>6.95632045380114e-19</v>
+        <v>5.469921172262987e-22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>197.3042471542943</v>
+        <v>461.7817437823256</v>
       </c>
       <c r="C10" t="n">
-        <v>1.092296417992221e-21</v>
+        <v>2.088218536231456e-299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>464.8307107077923</v>
+        <v>-0.02012155693941207</v>
       </c>
       <c r="C11" t="n">
-        <v>9.742595748052679e-303</v>
+        <v>0.07844416183814833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01949034385939095</v>
+        <v>2.266734255421216e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08815876653746267</v>
+        <v>0.1198639223423996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.13138781941843e-05</v>
+        <v>-26.63518640712051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1435143157684703</v>
+        <v>1.85610307512634e-25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-26.57863483690526</v>
+        <v>8.580349892536184</v>
       </c>
       <c r="C14" t="n">
-        <v>2.238962524346076e-25</v>
+        <v>0.000593555722716934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.58323015735472</v>
+        <v>-2197.591186354127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005878949514023888</v>
+        <v>2.767235093077345e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2146.80853787097</v>
+        <v>-612.2118292386135</v>
       </c>
       <c r="C16" t="n">
-        <v>6.334207752630579e-09</v>
+        <v>0.02170518398378448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-612.6176247611304</v>
+        <v>1942.620626544901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02156324306017781</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1944.349498311445</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.453982297954271e-12</v>
+        <v>2.619744892235619e-12</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ38021122" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ39537067" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ41001519" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42663851" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44403726" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46191502" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47699930" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ49215385" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50746076" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44119053" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ45229571" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46300314" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47408142" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ48495572" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49558933" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50648980" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ51750537" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52841439" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7344.876021268332</v>
+        <v>6179.957776122401</v>
       </c>
       <c r="C2" t="n">
-        <v>4.384233614676451e-42</v>
+        <v>2.258339041607808e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.7571617370423</v>
+        <v>-107.0266658157109</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3121875888068407</v>
+        <v>0.8672941284591865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1040.941383491593</v>
+        <v>373.1211541383994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001149655998291537</v>
+        <v>0.5168799045053053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-379.3415028481562</v>
+        <v>1091.183536655743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4813952570520416</v>
+        <v>0.05778474969111246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.05884674993311</v>
+        <v>-97.84251280562125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001112013870015863</v>
+        <v>0.400533148042418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1267.8072009044</v>
+        <v>-221.5320510134488</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605772409784918e-64</v>
+        <v>0.02721310246164067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.70895519290679</v>
+        <v>93.70483599668563</v>
       </c>
       <c r="C8" t="n">
-        <v>1.827084077351665e-22</v>
+        <v>0.001156745937004331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.5213678338935</v>
+        <v>-1264.642741428606</v>
       </c>
       <c r="C9" t="n">
-        <v>2.453554898718435e-28</v>
+        <v>5.769076313324131e-64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.332224653144</v>
+        <v>-31.6671951609765</v>
       </c>
       <c r="C10" t="n">
-        <v>1.209287282173495e-306</v>
+        <v>2.214331268324017e-22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03934679401509648</v>
+        <v>226.8091973849956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006725894935679446</v>
+        <v>2.113438144336314e-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.563381605994959e-05</v>
+        <v>470.1796355836648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002195958666782807</v>
+        <v>2.776001087662715e-306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.38005801714057</v>
+        <v>-0.0396722003939371</v>
       </c>
       <c r="C13" t="n">
-        <v>2.371865050978123e-21</v>
+        <v>0.00060837024125457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.05603523449003</v>
+        <v>5.575534994823361e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.049194056814308e-05</v>
+        <v>0.0002130180256162974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2122.787873847982</v>
+        <v>-24.1955914664171</v>
       </c>
       <c r="C15" t="n">
-        <v>1.006826562442782e-08</v>
+        <v>4.773577462688854e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-100.3662852641645</v>
+        <v>10.99582424340492</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7088886031398687</v>
+        <v>1.174664247559642e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2125.425737354451</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.070143684084334e-08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-106.3173689775297</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6925625879383508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1843.314391343497</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.21288508442918e-11</v>
+      <c r="B19" t="n">
+        <v>1801.284532032911</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.419267994341731e-10</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7339.958821271252</v>
+        <v>6214.610916955628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.216237337178281e-41</v>
+        <v>8.971396891125973e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>408.0449968896335</v>
+        <v>-92.40488721368962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2038249769702677</v>
+        <v>0.8847950337455092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.744930035627</v>
+        <v>488.3025457395403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004209146367685867</v>
+        <v>0.3924552490252087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-441.3126751206117</v>
+        <v>1211.393849111167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4170741707868201</v>
+        <v>0.03371165650981507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.08700048015882</v>
+        <v>-102.2947420491369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007636334908154909</v>
+        <v>0.3811573049822364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1233.089191376683</v>
+        <v>-277.6713601279237</v>
       </c>
       <c r="C7" t="n">
-        <v>6.675611899731643e-61</v>
+        <v>0.005660973268978671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-32.7611027211976</v>
+        <v>97.00583182291662</v>
       </c>
       <c r="C8" t="n">
-        <v>6.659438851715402e-24</v>
+        <v>0.0007726067541598805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>214.1706274022654</v>
+        <v>-1228.489573001758</v>
       </c>
       <c r="C9" t="n">
-        <v>2.719558273272675e-25</v>
+        <v>1.97167318132222e-60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.7587009283395</v>
+        <v>-32.6893356039466</v>
       </c>
       <c r="C10" t="n">
-        <v>2.223428935963108e-308</v>
+        <v>9.179305452988478e-24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02992202749470708</v>
+        <v>214.2669568892027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008879392112604243</v>
+        <v>2.582239337037521e-25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.852151157373207e-05</v>
+        <v>471.4995087668499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05171411573594467</v>
+        <v>7.217137354676747e-308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.88392094422258</v>
+        <v>-0.0303100983410443</v>
       </c>
       <c r="C13" t="n">
-        <v>4.856812880979369e-22</v>
+        <v>0.00804943903098904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.26950493831449</v>
+        <v>2.850288723363269e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.325723623499162e-05</v>
+        <v>0.05186314370362721</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2028.668673003302</v>
+        <v>-24.59940810313962</v>
       </c>
       <c r="C15" t="n">
-        <v>4.487685801885619e-08</v>
+        <v>1.443096530373269e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.7606123937073</v>
+        <v>10.20493048361177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6511354502547028</v>
+        <v>5.930562031298904e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2047.850170470434</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.690740191616032e-08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>107.5153679154639</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.689774363440214</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1828.876179394862</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.223331117546219e-11</v>
+      <c r="B19" t="n">
+        <v>1778.702966841879</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.142074982090963e-10</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7450.034963452632</v>
+        <v>5899.980135306354</v>
       </c>
       <c r="C2" t="n">
-        <v>5.540115446969016e-43</v>
+        <v>2.907469886058107e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.6606158258093</v>
+        <v>94.96687769003461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4161257480414109</v>
+        <v>0.8798577952383488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1046.250490605392</v>
+        <v>549.6017520126586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009114153075562278</v>
+        <v>0.3283996090920778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-637.0072156477687</v>
+        <v>1338.534111357954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2383250279730338</v>
+        <v>0.01718997548448929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.2401254354702</v>
+        <v>-9.148443004953606</v>
       </c>
       <c r="C6" t="n">
-        <v>6.947484114383155e-05</v>
+        <v>0.9375796405966255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1366.7866630516</v>
+        <v>-192.6433862438266</v>
       </c>
       <c r="C7" t="n">
-        <v>4.019643305012402e-74</v>
+        <v>0.05516393077494394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.64336530860326</v>
+        <v>114.8859170046421</v>
       </c>
       <c r="C8" t="n">
-        <v>8.92771168825753e-20</v>
+        <v>7.317727329599568e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.8644293503561</v>
+        <v>-1363.555044337898</v>
       </c>
       <c r="C9" t="n">
-        <v>6.388207817199356e-29</v>
+        <v>9.920162325141919e-74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.0684565803853</v>
+        <v>-29.50804644416902</v>
       </c>
       <c r="C10" t="n">
-        <v>1.81111996507502e-295</v>
+        <v>1.3699589064171e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02197247251113743</v>
+        <v>230.0748399677663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05592271281203372</v>
+        <v>5.74629516274319e-29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.143683897729575e-05</v>
+        <v>460.7166122951911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03187158614267784</v>
+        <v>6.940137273984681e-295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-24.33464615691724</v>
+        <v>-0.02240808130641642</v>
       </c>
       <c r="C13" t="n">
-        <v>2.74856356798991e-21</v>
+        <v>0.05129815525065222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.81716943231395</v>
+        <v>3.144260886845839e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.067886211951047e-05</v>
+        <v>0.03185008001341111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1884.910173211241</v>
+        <v>-24.07016406355189</v>
       </c>
       <c r="C15" t="n">
-        <v>3.29193767743475e-07</v>
+        <v>7.52996106183517e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-193.7950425834803</v>
+        <v>10.81471715641831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4732500136463621</v>
+        <v>2.07254525062115e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1915.650698696535</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.273451926954522e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-207.4522875877931</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4428416213856138</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1759.12320764898</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.897863671556463e-10</v>
+      <c r="B19" t="n">
+        <v>1735.323765097642</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.124948827919362e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8383.282894219778</v>
+        <v>6765.869750864605</v>
       </c>
       <c r="C2" t="n">
-        <v>6.167695529607815e-54</v>
+        <v>3.685377759874263e-22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.02506618564968</v>
+        <v>409.3841118090506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.856570813945716</v>
+        <v>0.5152105753377799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>799.7124138796153</v>
+        <v>602.4674482395905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01122296467410501</v>
+        <v>0.2853203575428558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-645.0386566999487</v>
+        <v>1346.217438765361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2298858503913279</v>
+        <v>0.0168921524745493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.1686512818313</v>
+        <v>-56.47479692921524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003832063237174039</v>
+        <v>0.626432056624268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1226.563580161706</v>
+        <v>-224.12198108537</v>
       </c>
       <c r="C7" t="n">
-        <v>1.075755845162873e-60</v>
+        <v>0.02452276691581886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-35.36841544655189</v>
+        <v>81.91893926708134</v>
       </c>
       <c r="C8" t="n">
-        <v>6.870817567634721e-28</v>
+        <v>0.004392916696522756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.044892890233</v>
+        <v>-1223.294879426918</v>
       </c>
       <c r="C9" t="n">
-        <v>1.413033511714784e-22</v>
+        <v>2.328201057454112e-60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.1298667337277</v>
+        <v>-35.33423637915646</v>
       </c>
       <c r="C10" t="n">
-        <v>6.118372573384379e-297</v>
+        <v>8.428989415261029e-28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02421147371636777</v>
+        <v>200.4212904016039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03385014803913247</v>
+        <v>1.18776446864353e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.187324512644585e-05</v>
+        <v>456.6232440558899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02867739270255738</v>
+        <v>5.702344737280217e-296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.42131179128713</v>
+        <v>-0.02486331846651873</v>
       </c>
       <c r="C13" t="n">
-        <v>8.305782702721639e-25</v>
+        <v>0.02939132500831899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.26751383448204</v>
+        <v>3.216357690383988e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001218115934909651</v>
+        <v>0.02726049524319357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2138.89154945342</v>
+        <v>-26.20419571454032</v>
       </c>
       <c r="C15" t="n">
-        <v>7.911897215311095e-09</v>
+        <v>2.008608027478838e-24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-328.0813460839112</v>
+        <v>8.197741095250539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2200790656909321</v>
+        <v>0.001340770813788518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2164.707374080998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.847569480861842e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-340.5723734284364</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2031776151578855</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1838.896437128906</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.711983587788257e-11</v>
+      <c r="B19" t="n">
+        <v>1800.487143272633</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.474891680621642e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7297.25778741349</v>
+        <v>6179.763662995309</v>
       </c>
       <c r="C2" t="n">
-        <v>6.361881473415307e-42</v>
+        <v>4.168278100756378e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>427.3643259407103</v>
+        <v>-171.301414443938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1693587691678856</v>
+        <v>0.7902449395423163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1154.292786958138</v>
+        <v>335.9584512404601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002046818721121414</v>
+        <v>0.5643058244582019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-130.4414897437127</v>
+        <v>1062.299665796219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8081347466236816</v>
+        <v>0.06811728273946643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.98584775612943</v>
+        <v>75.99574853920103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01567975346982479</v>
+        <v>0.5133779362833506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1288.577244842358</v>
+        <v>-157.2039903710991</v>
       </c>
       <c r="C7" t="n">
-        <v>8.705174810399223e-66</v>
+        <v>0.1154710148086544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.49731684715046</v>
+        <v>69.60953554206225</v>
       </c>
       <c r="C8" t="n">
-        <v>2.022611563622621e-18</v>
+        <v>0.01623356537439154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.4864153285128</v>
+        <v>-1284.251667461326</v>
       </c>
       <c r="C9" t="n">
-        <v>3.608322425895579e-21</v>
+        <v>2.631338972708087e-65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.5204325456031</v>
+        <v>-28.36399450948197</v>
       </c>
       <c r="C10" t="n">
-        <v>2.285128294586967e-300</v>
+        <v>3.01515150299067e-18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02474203680382851</v>
+        <v>194.1914456665633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03292863197754009</v>
+        <v>2.616644746700559e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.003329202599359e-05</v>
+        <v>465.5189675845634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04267740134281089</v>
+        <v>6.579823088899765e-299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-25.26805567960216</v>
+        <v>-0.02522572086054264</v>
       </c>
       <c r="C13" t="n">
-        <v>1.093860918419827e-22</v>
+        <v>0.02969710832617272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.31415552022722</v>
+        <v>3.009533782801314e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.032257979805972e-06</v>
+        <v>0.04225353464896443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1899.783533899328</v>
+        <v>-25.02908558089113</v>
       </c>
       <c r="C15" t="n">
-        <v>3.305323627609291e-07</v>
+        <v>2.749288998696084e-22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-201.0630434308958</v>
+        <v>12.27518661416001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4558319707730234</v>
+        <v>1.112150600839434e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1949.908903511867</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.741378816485564e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-222.5129568500396</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4094044442125789</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1786.751474358027</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.444622923581005e-10</v>
+      <c r="B19" t="n">
+        <v>1778.979708557617</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.155206622771223e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7052.325724229465</v>
+        <v>6117.712165945973</v>
       </c>
       <c r="C2" t="n">
-        <v>2.815219876717842e-38</v>
+        <v>4.019612697519646e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>574.1254820328568</v>
+        <v>-357.3673466097562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07439072280796016</v>
+        <v>0.5739488199160724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1246.224883641486</v>
+        <v>299.906675499568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001067563945184178</v>
+        <v>0.5984309118489161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-17.08429082236432</v>
+        <v>969.9006352389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9747167602306543</v>
+        <v>0.08823065099943303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.7443223853287</v>
+        <v>76.40302783464472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001250378202724669</v>
+        <v>0.515161376897409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1265.241750057644</v>
+        <v>-118.1652139381144</v>
       </c>
       <c r="C7" t="n">
-        <v>3.104480359576469e-63</v>
+        <v>0.2400858506022411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.89581307912667</v>
+        <v>111.8719448281879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.119840077164886e-20</v>
+        <v>0.0001225858564588412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216.042956468239</v>
+        <v>-1261.899140372034</v>
       </c>
       <c r="C9" t="n">
-        <v>2.368074170090413e-25</v>
+        <v>7.169130128079212e-63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.637068960906</v>
+        <v>-29.76459332450847</v>
       </c>
       <c r="C10" t="n">
-        <v>5.790987867582013e-307</v>
+        <v>7.841497796985131e-20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03708146786765322</v>
+        <v>216.6245435333878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001266190479823077</v>
+        <v>1.759885927159147e-25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.188426960651807e-05</v>
+        <v>470.8581853035491</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004171989298661385</v>
+        <v>8.003352384813171e-306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.71347639890465</v>
+        <v>-0.03748623013341996</v>
       </c>
       <c r="C13" t="n">
-        <v>4.841982858566262e-20</v>
+        <v>0.001123109277259357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.38007139729782</v>
+        <v>4.19675641927589e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3.798111317145922e-05</v>
+        <v>0.004098116494330751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1712.544551050877</v>
+        <v>-23.51320161460622</v>
       </c>
       <c r="C15" t="n">
-        <v>4.541255498477318e-06</v>
+        <v>1.016830234002681e-19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-85.12557656329398</v>
+        <v>10.32202667951375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7532590987510728</v>
+        <v>4.19076327211119e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1758.409559112906</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.701221911823363e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-99.94544065803211</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.712194145797713</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1885.895339792025</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.578585708980892e-11</v>
+      <c r="B19" t="n">
+        <v>1883.779785888605</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.170397274656393e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7547.596971854405</v>
+        <v>6958.579552860972</v>
       </c>
       <c r="C2" t="n">
-        <v>5.417267851270373e-45</v>
+        <v>6.333711443055396e-23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4276879584349</v>
+        <v>-585.4213298414454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6439206254461407</v>
+        <v>0.3563451220208663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>913.6207077941997</v>
+        <v>-389.3393298833882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003000890785485994</v>
+        <v>0.4974670378648116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.0441972130462</v>
+        <v>381.6276436895655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7083496002220342</v>
+        <v>0.5055741175830879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.97141015526012</v>
+        <v>-76.84445172845403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008879009910274892</v>
+        <v>0.5092158617983353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1277.325147862748</v>
+        <v>-237.1590963701472</v>
       </c>
       <c r="C7" t="n">
-        <v>1.029721578847118e-65</v>
+        <v>0.01750493667042916</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.69557707364763</v>
+        <v>75.27671762629834</v>
       </c>
       <c r="C8" t="n">
-        <v>6.691291345351033e-19</v>
+        <v>0.008607488390180112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.9146258384766</v>
+        <v>-1273.630306757565</v>
       </c>
       <c r="C9" t="n">
-        <v>8.956338744147258e-21</v>
+        <v>2.591653959330169e-65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.5380168278284</v>
+        <v>-28.65303107407276</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.933921846885e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03047559105874237</v>
+        <v>192.3301645283698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007741515206829174</v>
+        <v>7.375838039442172e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.263117458835574e-05</v>
+        <v>478.0359788211974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02514204683273005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.62666209381725</v>
+        <v>-0.03079336426158105</v>
       </c>
       <c r="C13" t="n">
-        <v>4.339498368171979e-20</v>
+        <v>0.007144880286697223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.08904556081246</v>
+        <v>3.264337789786704e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.138455819518215e-05</v>
+        <v>0.02509074406318996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2022.715952061873</v>
+        <v>-23.39952289560074</v>
       </c>
       <c r="C15" t="n">
-        <v>4.181398871121494e-08</v>
+        <v>1.005017187944336e-19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-298.5528430752776</v>
+        <v>11.05411687876301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2644302205310211</v>
+        <v>1.211728296431963e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2036.19626122199</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.73371979250935e-08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-309.9567029467701</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2467832888716782</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1977.558457348767</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.665319665603036e-13</v>
+      <c r="B19" t="n">
+        <v>1935.576051459443</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.34111439208507e-12</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7198.89727812661</v>
+        <v>6509.208462248513</v>
       </c>
       <c r="C2" t="n">
-        <v>1.200100433910197e-40</v>
+        <v>7.79133159597232e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.5159379063849</v>
+        <v>-408.4637763587502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672236151343288</v>
+        <v>0.54040076574838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>881.4405146287952</v>
+        <v>-306.1201101689094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004866745632166399</v>
+        <v>0.6131289448840305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.6868353514654</v>
+        <v>441.5706860382484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5227206489025532</v>
+        <v>0.465307711487071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.2239848716176</v>
+        <v>-42.72109943047258</v>
       </c>
       <c r="C6" t="n">
-        <v>9.071782537547294e-05</v>
+        <v>0.7128136678751971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1242.331816597542</v>
+        <v>-165.3102993007583</v>
       </c>
       <c r="C7" t="n">
-        <v>2.23100464040638e-62</v>
+        <v>0.09663085546310397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.70016629611666</v>
+        <v>112.2359193361953</v>
       </c>
       <c r="C8" t="n">
-        <v>1.457034290869568e-21</v>
+        <v>9.059489092085397e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.9538985218442</v>
+        <v>-1240.100140168309</v>
       </c>
       <c r="C9" t="n">
-        <v>2.745486799574254e-28</v>
+        <v>4.008828980302989e-62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.2429770769469</v>
+        <v>-30.75326563310572</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.320148274045689e-21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02472594072255496</v>
+        <v>228.5667927031082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03098523572594359</v>
+        <v>1.983736808798643e-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.976782171805259e-05</v>
+        <v>473.8064089266162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0418849078412347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-22.381688739183</v>
+        <v>-0.02497317520828952</v>
       </c>
       <c r="C13" t="n">
-        <v>4.702237164578535e-18</v>
+        <v>0.02936970397658483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.0711314056946</v>
+        <v>2.967700251200083e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3.004521100927499e-06</v>
+        <v>0.04252304300734922</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1824.010601881515</v>
+        <v>-22.22538296557327</v>
       </c>
       <c r="C15" t="n">
-        <v>7.499555108281641e-07</v>
+        <v>8.264185405817388e-18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-278.8095285392694</v>
+        <v>12.02394002000825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2985894030147972</v>
+        <v>3.29041973405809e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1838.264925775352</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.597781647020735e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-286.2796490096767</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.285953142702032</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1865.794970419312</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.431964935192727e-11</v>
+      <c r="B19" t="n">
+        <v>1837.240405457281</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.740712768430358e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7918.091528690138</v>
+        <v>6228.801112440433</v>
       </c>
       <c r="C2" t="n">
-        <v>2.739612712789791e-48</v>
+        <v>2.655093522467471e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.61096459388</v>
+        <v>372.4153113285824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3688147761048496</v>
+        <v>0.5662995070739874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1104.289345065608</v>
+        <v>836.5022556453954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006623982790777659</v>
+        <v>0.1519375953939972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-699.3992267927104</v>
+        <v>1649.121218591936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1980663368895885</v>
+        <v>0.004698982424687272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.7096440449785</v>
+        <v>-6.710056071361123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006061229363548395</v>
+        <v>0.9539307358859509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1223.232614075549</v>
+        <v>-131.3345729613018</v>
       </c>
       <c r="C7" t="n">
-        <v>1.946858841337846e-60</v>
+        <v>0.1865448450437662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.13221639664131</v>
+        <v>97.65370817826383</v>
       </c>
       <c r="C8" t="n">
-        <v>1.401615417496825e-20</v>
+        <v>0.0006942351288445877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>198.8366677891588</v>
+        <v>-1221.624028618521</v>
       </c>
       <c r="C9" t="n">
-        <v>5.469921172262987e-22</v>
+        <v>3.116818541984743e-60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.7817437823256</v>
+        <v>-29.9962875316996</v>
       </c>
       <c r="C10" t="n">
-        <v>2.088218536231456e-299</v>
+        <v>2.290688640974183e-20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02012155693941207</v>
+        <v>199.003648232916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07844416183814833</v>
+        <v>5.141819981645046e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.266734255421216e-05</v>
+        <v>461.5074554457545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1198639223423996</v>
+        <v>8.25041984374495e-299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-26.63518640712051</v>
+        <v>-0.0204286949138454</v>
       </c>
       <c r="C13" t="n">
-        <v>1.85610307512634e-25</v>
+        <v>0.07409532419532905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.580349892536184</v>
+        <v>2.267048689951589e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000593555722716934</v>
+        <v>0.1198536881849472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2197.591186354127</v>
+        <v>-26.46564934029388</v>
       </c>
       <c r="C15" t="n">
-        <v>2.767235093077345e-09</v>
+        <v>3.864278979594166e-25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-612.2118292386135</v>
+        <v>8.55588949003419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02170518398378448</v>
+        <v>0.0006166612774523335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2216.394888271537</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.238769229423136e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-623.3707883205595</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01949788692013175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1942.620626544901</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.619744892235619e-12</v>
+      <c r="B19" t="n">
+        <v>1925.79440791408</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.325712288053134e-12</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ44119053" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ45229571" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46300314" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47408142" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48495572" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49558933" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50648980" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ51750537" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52841439" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ35521970" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36472733" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37483462" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38550331" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ39617526" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41030988" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44404308" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46477799" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48356437" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6179.957776122401</v>
+        <v>7344.079132760369</v>
       </c>
       <c r="C2" t="n">
-        <v>2.258339041607808e-18</v>
+        <v>1.844660929468272e-25</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-107.0266658157109</v>
+        <v>-526.6514673801277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8672941284591865</v>
+        <v>0.4126337999099349</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.1211541383994</v>
+        <v>-71.97263882084377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5168799045053053</v>
+        <v>0.901068569363216</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1091.183536655743</v>
+        <v>711.5541375313804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05778474969111246</v>
+        <v>0.2185843860237646</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-97.84251280562125</v>
+        <v>-172.1995302208657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.400533148042418</v>
+        <v>0.1380903844661756</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-221.5320510134488</v>
+        <v>-373.9629786009616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02721310246164067</v>
+        <v>0.0001862121476965457</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.70483599668563</v>
+        <v>95.6999674599203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001156745937004331</v>
+        <v>0.0008913724374164298</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1264.642741428606</v>
+        <v>-1324.319308226633</v>
       </c>
       <c r="C9" t="n">
-        <v>5.769076313324131e-64</v>
+        <v>1.334258151616218e-69</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.6671951609765</v>
+        <v>-29.36555980551583</v>
       </c>
       <c r="C10" t="n">
-        <v>2.214331268324017e-22</v>
+        <v>1.763038513226675e-19</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.8091973849956</v>
+        <v>191.9584973497417</v>
       </c>
       <c r="C11" t="n">
-        <v>2.113438144336314e-28</v>
+        <v>1.383173461346357e-20</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470.1796355836648</v>
+        <v>444.7663927385994</v>
       </c>
       <c r="C12" t="n">
-        <v>2.776001087662715e-306</v>
+        <v>3.839453144221385e-283</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0396722003939371</v>
+        <v>-0.02486491521489368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00060837024125457</v>
+        <v>0.03026333993356567</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.575534994823361e-05</v>
+        <v>3.309701530351311e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002130180256162974</v>
+        <v>0.02420131879047042</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.1955914664171</v>
+        <v>-24.64683532286854</v>
       </c>
       <c r="C15" t="n">
-        <v>4.773577462688854e-21</v>
+        <v>8.110701628305779e-22</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.99582424340492</v>
+        <v>9.390679872076499</v>
       </c>
       <c r="C16" t="n">
-        <v>1.174664247559642e-05</v>
+        <v>0.0001788990937253942</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2125.425737354451</v>
+        <v>-1878.516503069231</v>
       </c>
       <c r="C17" t="n">
-        <v>1.070143684084334e-08</v>
+        <v>4.635474591053134e-07</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-106.3173689775297</v>
+        <v>-394.9131155976053</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6925625879383508</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1801.284532032911</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.419267994341731e-10</v>
+        <v>0.1439601622194519</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6214.610916955628</v>
+        <v>6855.631397978784</v>
       </c>
       <c r="C2" t="n">
-        <v>8.971396891125973e-19</v>
+        <v>1.507295788079555e-22</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.40488721368962</v>
+        <v>401.3008779277219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8847950337455092</v>
+        <v>0.5312326044382027</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.3025457395403</v>
+        <v>775.9026191137568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3924552490252087</v>
+        <v>0.1774579424977878</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1211.393849111167</v>
+        <v>1558.2193393596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03371165650981507</v>
+        <v>0.006710114665154218</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102.2947420491369</v>
+        <v>-93.09716122203622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3811573049822364</v>
+        <v>0.4229878080623641</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-277.6713601279237</v>
+        <v>-215.0585551174981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005660973268978671</v>
+        <v>0.0308345928911395</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.00583182291662</v>
+        <v>74.48374898133555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007726067541598805</v>
+        <v>0.01009369140680192</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1228.489573001758</v>
+        <v>-1227.980625586106</v>
       </c>
       <c r="C9" t="n">
-        <v>1.97167318132222e-60</v>
+        <v>6.409823865017918e-60</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.6893356039466</v>
+        <v>-31.96138976388695</v>
       </c>
       <c r="C10" t="n">
-        <v>9.179305452988478e-24</v>
+        <v>1.193762078130744e-22</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.2669568892027</v>
+        <v>189.5292319532419</v>
       </c>
       <c r="C11" t="n">
-        <v>2.582239337037521e-25</v>
+        <v>3.678161696882257e-20</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>471.4995087668499</v>
+        <v>452.5874001930608</v>
       </c>
       <c r="C12" t="n">
-        <v>7.217137354676747e-308</v>
+        <v>3.280523943072329e-293</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0303100983410443</v>
+        <v>-0.03082591906271832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00804943903098904</v>
+        <v>0.007568184288937458</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.850288723363269e-05</v>
+        <v>3.949372521741331e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05186314370362721</v>
+        <v>0.006959958885821965</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.59940810313962</v>
+        <v>-26.14478482074586</v>
       </c>
       <c r="C15" t="n">
-        <v>1.443096530373269e-21</v>
+        <v>3.129082313053727e-24</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.20493048361177</v>
+        <v>5.892337308834488</v>
       </c>
       <c r="C16" t="n">
-        <v>5.930562031298904e-05</v>
+        <v>0.01865043115476674</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2047.850170470434</v>
+        <v>-2040.16127418523</v>
       </c>
       <c r="C17" t="n">
-        <v>3.690740191616032e-08</v>
+        <v>3.783172682662417e-08</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107.5153679154639</v>
+        <v>-158.2640325289256</v>
       </c>
       <c r="C18" t="n">
-        <v>0.689774363440214</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1778.702966841879</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.142074982090963e-10</v>
+        <v>0.5580662725092382</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5899.980135306354</v>
+        <v>6833.21539539188</v>
       </c>
       <c r="C2" t="n">
-        <v>2.907469886058107e-17</v>
+        <v>1.205666222052947e-21</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.96687769003461</v>
+        <v>347.3255412858809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8798577952383488</v>
+        <v>0.5948876185227143</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.6017520126586</v>
+        <v>658.6869972544013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3283996090920778</v>
+        <v>0.2654401656326713</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1338.534111357954</v>
+        <v>1398.193545924287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01718997548448929</v>
+        <v>0.01798407783240197</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.148443004953606</v>
+        <v>-28.15226993339115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375796405966255</v>
+        <v>0.808060086223185</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-192.6433862438266</v>
+        <v>-165.4636856428408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05516393077494394</v>
+        <v>0.09665559730135841</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.8859170046421</v>
+        <v>78.59004070426298</v>
       </c>
       <c r="C8" t="n">
-        <v>7.317727329599568e-05</v>
+        <v>0.00635476973292082</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1363.555044337898</v>
+        <v>-1261.780672533875</v>
       </c>
       <c r="C9" t="n">
-        <v>9.920162325141919e-74</v>
+        <v>1.635846378115368e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.50804644416902</v>
+        <v>-32.54962112433623</v>
       </c>
       <c r="C10" t="n">
-        <v>1.3699589064171e-19</v>
+        <v>1.285654678479865e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.0748399677663</v>
+        <v>208.4619451201979</v>
       </c>
       <c r="C11" t="n">
-        <v>5.74629516274319e-29</v>
+        <v>4.395408310194551e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460.7166122951911</v>
+        <v>445.9664837522421</v>
       </c>
       <c r="C12" t="n">
-        <v>6.940137273984681e-295</v>
+        <v>4.18081298927789e-283</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02240808130641642</v>
+        <v>-0.03089826970075704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05129815525065222</v>
+        <v>0.007487280816146233</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.144260886845839e-05</v>
+        <v>3.734784395961646e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03185008001341111</v>
+        <v>0.01093318172011412</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.07016406355189</v>
+        <v>-25.92591522291499</v>
       </c>
       <c r="C15" t="n">
-        <v>7.52996106183517e-21</v>
+        <v>6.966780171535379e-24</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.81471715641831</v>
+        <v>6.603143703728739</v>
       </c>
       <c r="C16" t="n">
-        <v>2.07254525062115e-05</v>
+        <v>0.008123631338956121</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1915.650698696535</v>
+        <v>-1859.569295437513</v>
       </c>
       <c r="C17" t="n">
-        <v>2.273451926954522e-07</v>
+        <v>5.573464429466282e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-207.4522875877931</v>
+        <v>-196.78868584297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4428416213856138</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1735.323765097642</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.124948827919362e-10</v>
+        <v>0.4662451428078663</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6765.869750864605</v>
+        <v>6868.143703113974</v>
       </c>
       <c r="C2" t="n">
-        <v>3.685377759874263e-22</v>
+        <v>2.821433991320524e-21</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409.3841118090506</v>
+        <v>17.89105176205356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5152105753377799</v>
+        <v>0.9784699991402243</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.4674482395905</v>
+        <v>354.8973004366012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2853203575428558</v>
+        <v>0.554802571958889</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1346.217438765361</v>
+        <v>1060.081919801507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0168921524745493</v>
+        <v>0.07752797378059918</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56.47479692921524</v>
+        <v>-171.3936593711931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626432056624268</v>
+        <v>0.140217850579747</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-224.12198108537</v>
+        <v>-283.2703864095197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02452276691581886</v>
+        <v>0.00453181594081597</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.91893926708134</v>
+        <v>96.2446232409952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004392916696522756</v>
+        <v>0.0008640542295020583</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1223.294879426918</v>
+        <v>-1238.448261144499</v>
       </c>
       <c r="C9" t="n">
-        <v>2.328201057454112e-60</v>
+        <v>5.809382079037033e-61</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-35.33423637915646</v>
+        <v>-33.29375884049894</v>
       </c>
       <c r="C10" t="n">
-        <v>8.428989415261029e-28</v>
+        <v>2.498070168373189e-24</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.4212904016039</v>
+        <v>212.1546159521556</v>
       </c>
       <c r="C11" t="n">
-        <v>1.18776446864353e-22</v>
+        <v>7.904574513624637e-25</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456.6232440558899</v>
+        <v>463.8440127897304</v>
       </c>
       <c r="C12" t="n">
-        <v>5.702344737280217e-296</v>
+        <v>2.666212728145945e-305</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02486331846651873</v>
+        <v>-0.03458655058229078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02939132500831899</v>
+        <v>0.002713561335699522</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.216357690383988e-05</v>
+        <v>3.844423238925088e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02726049524319357</v>
+        <v>0.008488889823729646</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.20419571454032</v>
+        <v>-24.50398364204528</v>
       </c>
       <c r="C15" t="n">
-        <v>2.008608027478838e-24</v>
+        <v>2.324987435628096e-21</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.197741095250539</v>
+        <v>7.838439992504709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001340770813788518</v>
+        <v>0.0019671419700907</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2164.707374080998</v>
+        <v>-2059.269163986026</v>
       </c>
       <c r="C17" t="n">
-        <v>5.847569480861842e-09</v>
+        <v>2.737382522420595e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-340.5723734284364</v>
+        <v>109.406919013735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2031776151578855</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1800.487143272633</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.474891680621642e-10</v>
+        <v>0.6853668721677004</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6179.763662995309</v>
+        <v>7246.153376389315</v>
       </c>
       <c r="C2" t="n">
-        <v>4.168278100756378e-18</v>
+        <v>2.309296935884998e-26</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-171.301414443938</v>
+        <v>-250.8558363683575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7902449395423163</v>
+        <v>0.6864306346277296</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.9584512404601</v>
+        <v>323.9482101169963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5643058244582019</v>
+        <v>0.5574456282774208</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1062.299665796219</v>
+        <v>1042.118890551836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06811728273946643</v>
+        <v>0.05886682359417567</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.99574853920103</v>
+        <v>-171.456653280231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5133779362833506</v>
+        <v>0.1401266738327455</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-157.2039903710991</v>
+        <v>-319.6313935903854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154710148086544</v>
+        <v>0.001447722449457324</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.60953554206225</v>
+        <v>77.17047925266087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01623356537439154</v>
+        <v>0.007371491017941251</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1284.251667461326</v>
+        <v>-1261.125641195929</v>
       </c>
       <c r="C9" t="n">
-        <v>2.631338972708087e-65</v>
+        <v>1.699532441206913e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-28.36399450948197</v>
+        <v>-32.46761384980978</v>
       </c>
       <c r="C10" t="n">
-        <v>3.01515150299067e-18</v>
+        <v>1.81864214633382e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.1914456665633</v>
+        <v>204.6915656444027</v>
       </c>
       <c r="C11" t="n">
-        <v>2.616644746700559e-21</v>
+        <v>3.46704984966367e-23</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>465.5189675845634</v>
+        <v>453.0117485811844</v>
       </c>
       <c r="C12" t="n">
-        <v>6.579823088899765e-299</v>
+        <v>7.243068474440361e-294</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02522572086054264</v>
+        <v>-0.03318423489715046</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02969710832617272</v>
+        <v>0.004351950758415339</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.009533782801314e-05</v>
+        <v>4.520582274948602e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04225353464896443</v>
+        <v>0.002482637423352186</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.02908558089113</v>
+        <v>-25.615851880704</v>
       </c>
       <c r="C15" t="n">
-        <v>2.749288998696084e-22</v>
+        <v>2.800409185140436e-23</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.27518661416001</v>
+        <v>6.921881244529073</v>
       </c>
       <c r="C16" t="n">
-        <v>1.112150600839434e-06</v>
+        <v>0.004900409272954761</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1949.908903511867</v>
+        <v>-1980.543597360227</v>
       </c>
       <c r="C17" t="n">
-        <v>1.741378816485564e-07</v>
+        <v>9.739452545008515e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-222.5129568500396</v>
+        <v>-152.6335538093086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4094044442125789</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1778.979708557617</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.155206622771223e-10</v>
+        <v>0.571966023033373</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6117.712165945973</v>
+        <v>7107.418008574205</v>
       </c>
       <c r="C2" t="n">
-        <v>4.019612697519646e-18</v>
+        <v>9.359952149076006e-25</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-357.3673466097562</v>
+        <v>-267.9339641513905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5739488199160724</v>
+        <v>0.6698697613591327</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.906675499568</v>
+        <v>239.3775193598517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5984309118489161</v>
+        <v>0.6706697130104791</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>969.9006352389</v>
+        <v>980.3616808393755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08823065099943303</v>
+        <v>0.0813123125993394</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.40302783464472</v>
+        <v>-189.6484291229858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.515161376897409</v>
+        <v>0.1025823103680682</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-118.1652139381144</v>
+        <v>-342.2350206061867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2400858506022411</v>
+        <v>0.0006121060632993127</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.8719448281879</v>
+        <v>83.24355844388812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001225858564588412</v>
+        <v>0.00413405688367942</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1261.899140372034</v>
+        <v>-1262.983153020569</v>
       </c>
       <c r="C9" t="n">
-        <v>7.169130128079212e-63</v>
+        <v>2.787362138786057e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.76459332450847</v>
+        <v>-29.11557859395043</v>
       </c>
       <c r="C10" t="n">
-        <v>7.841497796985131e-20</v>
+        <v>3.597915876487493e-19</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.6245435333878</v>
+        <v>204.8757055706813</v>
       </c>
       <c r="C11" t="n">
-        <v>1.759885927159147e-25</v>
+        <v>2.602453128932207e-23</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470.8581853035491</v>
+        <v>453.7646500716344</v>
       </c>
       <c r="C12" t="n">
-        <v>8.003352384813171e-306</v>
+        <v>6.833416496807352e-291</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03748623013341996</v>
+        <v>-0.03152177497855344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001123109277259357</v>
+        <v>0.006390133555478478</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.19675641927589e-05</v>
+        <v>4.07932791633034e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004098116494330751</v>
+        <v>0.005790917493050178</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.51320161460622</v>
+        <v>-24.87415206620682</v>
       </c>
       <c r="C15" t="n">
-        <v>1.016830234002681e-19</v>
+        <v>7.66492541166706e-22</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.32202667951375</v>
+        <v>6.7080693516463</v>
       </c>
       <c r="C16" t="n">
-        <v>4.19076327211119e-05</v>
+        <v>0.007092628920948036</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1758.409559112906</v>
+        <v>-1795.476367445424</v>
       </c>
       <c r="C17" t="n">
-        <v>2.701221911823363e-06</v>
+        <v>1.394051839990599e-06</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-99.94544065803211</v>
+        <v>-139.5221365610246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.712194145797713</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1883.779785888605</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.170397274656393e-11</v>
+        <v>0.6072255849331378</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6958.579552860972</v>
+        <v>6824.88563506239</v>
       </c>
       <c r="C2" t="n">
-        <v>6.333711443055396e-23</v>
+        <v>1.892788285690484e-22</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-585.4213298414454</v>
+        <v>9.564719817097966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3563451220208663</v>
+        <v>0.9879750513312876</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-389.3393298833882</v>
+        <v>273.2630561993803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4974670378648116</v>
+        <v>0.6315327765920399</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.6276436895655</v>
+        <v>1091.186003566621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5055741175830879</v>
+        <v>0.05526852976666879</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76.84445172845403</v>
+        <v>-103.0744600843066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5092158617983353</v>
+        <v>0.376290861896182</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-237.1590963701472</v>
+        <v>-178.6616079540477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01750493667042916</v>
+        <v>0.07425541431069375</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.27671762629834</v>
+        <v>86.4585377511297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008607488390180112</v>
+        <v>0.002834988976680637</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1273.630306757565</v>
+        <v>-1256.473704283404</v>
       </c>
       <c r="C9" t="n">
-        <v>2.591653959330169e-65</v>
+        <v>9.880945366865247e-63</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-28.65303107407276</v>
+        <v>-30.9529010297879</v>
       </c>
       <c r="C10" t="n">
-        <v>7.933921846885e-19</v>
+        <v>1.74913746655334e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>192.3301645283698</v>
+        <v>214.9837438072143</v>
       </c>
       <c r="C11" t="n">
-        <v>7.375838039442172e-21</v>
+        <v>2.238582132092372e-25</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>478.0359788211974</v>
+        <v>454.5253803160669</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5.076514621459537e-293</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03079336426158105</v>
+        <v>-0.01804240518400733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007144880286697223</v>
+        <v>0.1185930396122073</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.264337789786704e-05</v>
+        <v>2.327472089072648e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02509074406318996</v>
+        <v>0.1156468555588377</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.39952289560074</v>
+        <v>-24.25022335643096</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005017187944336e-19</v>
+        <v>7.792163154125591e-21</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.05411687876301</v>
+        <v>8.721920162856348</v>
       </c>
       <c r="C16" t="n">
-        <v>1.211728296431963e-05</v>
+        <v>0.0005466773886505737</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2036.19626122199</v>
+        <v>-1829.116218486033</v>
       </c>
       <c r="C17" t="n">
-        <v>3.73371979250935e-08</v>
+        <v>8.095164437960449e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-309.9567029467701</v>
+        <v>-433.490866502228</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2467832888716782</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1935.576051459443</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.34111439208507e-12</v>
+        <v>0.1086456457839873</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6509.208462248513</v>
+        <v>6670.82877788922</v>
       </c>
       <c r="C2" t="n">
-        <v>7.79133159597232e-19</v>
+        <v>1.270707434566914e-20</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-408.4637763587502</v>
+        <v>-70.60405406339146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.54040076574838</v>
+        <v>0.9143903012374937</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-306.1201101689094</v>
+        <v>345.1020087968972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6131289448840305</v>
+        <v>0.5601459187167891</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441.5706860382484</v>
+        <v>1141.389819906832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.465307711487071</v>
+        <v>0.05375105700150748</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42.72109943047258</v>
+        <v>-101.0579117785924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7128136678751971</v>
+        <v>0.3857763895090811</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-165.3102993007583</v>
+        <v>-258.7553571851192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09663085546310397</v>
+        <v>0.009848315223106743</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.2359193361953</v>
+        <v>88.61535243032731</v>
       </c>
       <c r="C8" t="n">
-        <v>9.059489092085397e-05</v>
+        <v>0.0021831102216253</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1240.100140168309</v>
+        <v>-1288.607872151503</v>
       </c>
       <c r="C9" t="n">
-        <v>4.008828980302989e-62</v>
+        <v>5.445782289229235e-66</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.75326563310572</v>
+        <v>-32.30666541128859</v>
       </c>
       <c r="C10" t="n">
-        <v>1.320148274045689e-21</v>
+        <v>2.680083955685758e-23</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.5667927031082</v>
+        <v>238.4914120621078</v>
       </c>
       <c r="C11" t="n">
-        <v>1.983736808798643e-28</v>
+        <v>4.820853973202292e-31</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>473.8064089266162</v>
+        <v>446.9648389359232</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3.125464131548731e-285</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02497317520828952</v>
+        <v>-0.03111073233341614</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02936970397658483</v>
+        <v>0.007327455886340658</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.967700251200083e-05</v>
+        <v>4.251161640782306e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04252304300734922</v>
+        <v>0.004210510181467801</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.22538296557327</v>
+        <v>-24.73204602982809</v>
       </c>
       <c r="C15" t="n">
-        <v>8.264185405817388e-18</v>
+        <v>1.208915043943535e-21</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.02394002000825</v>
+        <v>9.154979109051846</v>
       </c>
       <c r="C16" t="n">
-        <v>3.29041973405809e-06</v>
+        <v>0.000269551094915492</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1838.264925775352</v>
+        <v>-1813.732955803298</v>
       </c>
       <c r="C17" t="n">
-        <v>6.597781647020735e-07</v>
+        <v>1.079533602985758e-06</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-286.2796490096767</v>
+        <v>-8.162657893225173</v>
       </c>
       <c r="C18" t="n">
-        <v>0.285953142702032</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1837.240405457281</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.740712768430358e-11</v>
+        <v>0.9759683199327545</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6228.801112440433</v>
+        <v>6183.942083111004</v>
       </c>
       <c r="C2" t="n">
-        <v>2.655093522467471e-18</v>
+        <v>1.173062044564395e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372.4153113285824</v>
+        <v>-416.8167228932008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5662995070739874</v>
+        <v>0.5118729330528363</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>836.5022556453954</v>
+        <v>20.12245248641511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1519375953939972</v>
+        <v>0.972016346961637</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1649.121218591936</v>
+        <v>797.4973834719331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004698982424687272</v>
+        <v>0.1640120741991107</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.710056071361123</v>
+        <v>27.41067381973312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9539307358859509</v>
+        <v>0.8133024048413943</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-131.3345729613018</v>
+        <v>-159.2904006829604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1865448450437662</v>
+        <v>0.1098826109073981</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.65370817826383</v>
+        <v>116.6667274796549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006942351288445877</v>
+        <v>5.295739956656082e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1221.624028618521</v>
+        <v>-1221.773092962514</v>
       </c>
       <c r="C9" t="n">
-        <v>3.116818541984743e-60</v>
+        <v>4.299860900755978e-60</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.9962875316996</v>
+        <v>-29.99506029814167</v>
       </c>
       <c r="C10" t="n">
-        <v>2.290688640974183e-20</v>
+        <v>2.151583474717221e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.003648232916</v>
+        <v>239.4547272035642</v>
       </c>
       <c r="C11" t="n">
-        <v>5.141819981645046e-22</v>
+        <v>4.789389007818374e-31</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.5074554457545</v>
+        <v>449.8343774007604</v>
       </c>
       <c r="C12" t="n">
-        <v>8.25041984374495e-299</v>
+        <v>8.87962000513093e-289</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0204286949138454</v>
+        <v>-0.0239228372875666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07409532419532905</v>
+        <v>0.03524456744203015</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.267048689951589e-05</v>
+        <v>3.677250496924709e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1198536881849472</v>
+        <v>0.01063136448382527</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.46564934029388</v>
+        <v>-22.41693184246273</v>
       </c>
       <c r="C15" t="n">
-        <v>3.864278979594166e-25</v>
+        <v>3.772219685504229e-18</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.55588949003419</v>
+        <v>12.32534041507873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006166612774523335</v>
+        <v>1.065032915149674e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2216.394888271537</v>
+        <v>-1451.19014803831</v>
       </c>
       <c r="C17" t="n">
-        <v>2.238769229423136e-09</v>
+        <v>8.950997559582571e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-623.3707883205595</v>
+        <v>-86.73784584936004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01949788692013175</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1925.79440791408</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.325712288053134e-12</v>
+        <v>0.7467841628054996</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35521970" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36472733" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37483462" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38550331" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ39617526" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41030988" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44404308" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ46477799" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ48356437" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34555815" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35753127" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36811193" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37848199" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38871872" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39881069" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ40903302" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41944001" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43063316" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7344.079132760369</v>
+        <v>6624.091939615049</v>
       </c>
       <c r="C2" t="n">
-        <v>1.844660929468272e-25</v>
+        <v>1.152690925201376e-20</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-526.6514673801277</v>
+        <v>228.3432100179251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4126337999099349</v>
+        <v>0.7253843033282803</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-71.97263882084377</v>
+        <v>849.7573214361937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.901068569363216</v>
+        <v>0.1457770827067722</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>711.5541375313804</v>
+        <v>1535.922120336277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2185843860237646</v>
+        <v>0.008493861009430104</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172.1995302208657</v>
+        <v>-62.61052269387119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1380903844661756</v>
+        <v>0.5908718352635725</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-373.9629786009616</v>
+        <v>-258.0216149905932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001862121476965457</v>
+        <v>0.009858628649475147</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.6999674599203</v>
+        <v>78.02413245656567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008913724374164298</v>
+        <v>0.006990887960258856</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1324.319308226633</v>
+        <v>-1277.030284844331</v>
       </c>
       <c r="C9" t="n">
-        <v>1.334258151616218e-69</v>
+        <v>1.289458636219465e-64</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.36555980551583</v>
+        <v>-32.84530079177129</v>
       </c>
       <c r="C10" t="n">
-        <v>1.763038513226675e-19</v>
+        <v>4.826909747181773e-24</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>191.9584973497417</v>
+        <v>239.0369259702444</v>
       </c>
       <c r="C11" t="n">
-        <v>1.383173461346357e-20</v>
+        <v>6.30923317330064e-30</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>444.7663927385994</v>
+        <v>445.4485496797773</v>
       </c>
       <c r="C12" t="n">
-        <v>3.839453144221385e-283</v>
+        <v>1.818890819261763e-280</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02486491521489368</v>
+        <v>-0.02413144128049513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03026333993356567</v>
+        <v>0.04694911845140084</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.309701530351311e-05</v>
+        <v>3.255668937909595e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02420131879047042</v>
+        <v>0.02730461039220844</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.64683532286854</v>
+        <v>-25.83877854850373</v>
       </c>
       <c r="C15" t="n">
-        <v>8.110701628305779e-22</v>
+        <v>1.596093540208e-23</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.390679872076499</v>
+        <v>7.24351491082813</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001788990937253942</v>
+        <v>0.004313573001920735</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1878.516503069231</v>
+        <v>-1966.248626537106</v>
       </c>
       <c r="C17" t="n">
-        <v>4.635474591053134e-07</v>
+        <v>1.4318288446911e-07</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-394.9131155976053</v>
+        <v>-149.9071073948375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1439601622194519</v>
+        <v>0.5810298995962568</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6855.631397978784</v>
+        <v>6770.416538600455</v>
       </c>
       <c r="C2" t="n">
-        <v>1.507295788079555e-22</v>
+        <v>7.481096794173274e-21</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>401.3008779277219</v>
+        <v>36.71413177178229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5312326044382027</v>
+        <v>0.9555010747403475</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9026191137568</v>
+        <v>462.9651397558928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1774579424977878</v>
+        <v>0.4392297329630611</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1558.2193393596</v>
+        <v>1219.922269252028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006710114665154218</v>
+        <v>0.04135134155520814</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93.09716122203622</v>
+        <v>-94.6889818414727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4229878080623641</v>
+        <v>0.4183051311744916</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-215.0585551174981</v>
+        <v>-227.751984452231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0308345928911395</v>
+        <v>0.02316714409058028</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.48374898133555</v>
+        <v>113.5538912029445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01009369140680192</v>
+        <v>9.097129418943146e-05</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1227.980625586106</v>
+        <v>-1340.182653460834</v>
       </c>
       <c r="C9" t="n">
-        <v>6.409823865017918e-60</v>
+        <v>6.49053520592413e-71</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.96138976388695</v>
+        <v>-29.47804287150083</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193762078130744e-22</v>
+        <v>1.173917301664931e-19</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.5292319532419</v>
+        <v>197.7280554508511</v>
       </c>
       <c r="C11" t="n">
-        <v>3.678161696882257e-20</v>
+        <v>4.532913515899602e-21</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>452.5874001930608</v>
+        <v>439.7447124841459</v>
       </c>
       <c r="C12" t="n">
-        <v>3.280523943072329e-293</v>
+        <v>1.302857052492772e-273</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03082591906271832</v>
+        <v>-0.0225813169988327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007568184288937458</v>
+        <v>0.06134256784186077</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.949372521741331e-05</v>
+        <v>2.878566165154093e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006959958885821965</v>
+        <v>0.05097137887155125</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-26.14478482074586</v>
+        <v>-24.1258948483392</v>
       </c>
       <c r="C15" t="n">
-        <v>3.129082313053727e-24</v>
+        <v>7.206748656493802e-21</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.892337308834488</v>
+        <v>8.794377387350583</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01865043115476674</v>
+        <v>0.0004885401152967951</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2040.16127418523</v>
+        <v>-2231.34871761781</v>
       </c>
       <c r="C17" t="n">
-        <v>3.783172682662417e-08</v>
+        <v>2.624884254325082e-09</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-158.2640325289256</v>
+        <v>-393.8029110088944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5580662725092382</v>
+        <v>0.1459828770894746</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6833.21539539188</v>
+        <v>7461.884322494781</v>
       </c>
       <c r="C2" t="n">
-        <v>1.205666222052947e-21</v>
+        <v>5.608152917964229e-26</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.3255412858809</v>
+        <v>-283.7418021681182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5948876185227143</v>
+        <v>0.6592626827162009</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.6869972544013</v>
+        <v>186.3786852737967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2654401656326713</v>
+        <v>0.7480920009085562</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1398.193545924287</v>
+        <v>893.6644498136789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01798407783240197</v>
+        <v>0.1231638496105257</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28.15226993339115</v>
+        <v>-114.8958036545955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.808060086223185</v>
+        <v>0.3249537074210901</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-165.4636856428408</v>
+        <v>-257.2481792334563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09665559730135841</v>
+        <v>0.0102516230227415</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.59004070426298</v>
+        <v>93.15787536609291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00635476973292082</v>
+        <v>0.00134714471489296</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1261.780672533875</v>
+        <v>-1360.382298968127</v>
       </c>
       <c r="C9" t="n">
-        <v>1.635846378115368e-63</v>
+        <v>9.080878894725828e-73</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.54962112433623</v>
+        <v>-32.24890916056569</v>
       </c>
       <c r="C10" t="n">
-        <v>1.285654678479865e-23</v>
+        <v>5.244779507303432e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.4619451201979</v>
+        <v>217.6541517995254</v>
       </c>
       <c r="C11" t="n">
-        <v>4.395408310194551e-24</v>
+        <v>5.367097120166904e-25</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.9664837522421</v>
+        <v>445.859520305143</v>
       </c>
       <c r="C12" t="n">
-        <v>4.18081298927789e-283</v>
+        <v>3.485212817436992e-278</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03089826970075704</v>
+        <v>-0.02008937285535889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007487280816146233</v>
+        <v>0.09621111740061811</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.734784395961646e-05</v>
+        <v>2.3174340070814e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01093318172011412</v>
+        <v>0.1167883344416816</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.92591522291499</v>
+        <v>-23.92639966440364</v>
       </c>
       <c r="C15" t="n">
-        <v>6.966780171535379e-24</v>
+        <v>2.660852312902765e-20</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.603143703728739</v>
+        <v>5.065632204777085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008123631338956121</v>
+        <v>0.04651687030465003</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1859.569295437513</v>
+        <v>-1667.959216028098</v>
       </c>
       <c r="C17" t="n">
-        <v>5.573464429466282e-07</v>
+        <v>9.194723969321303e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-196.78868584297</v>
+        <v>-428.6262390009616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4662451428078663</v>
+        <v>0.1145259578556049</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6868.143703113974</v>
+        <v>6823.916890347897</v>
       </c>
       <c r="C2" t="n">
-        <v>2.821433991320524e-21</v>
+        <v>1.286827525840077e-21</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.89105176205356</v>
+        <v>91.62280008119797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9784699991402243</v>
+        <v>0.88824617749574</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.8973004366012</v>
+        <v>671.6669506372211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.554802571958889</v>
+        <v>0.2537434100175722</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1060.081919801507</v>
+        <v>1337.527887343113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07752797378059918</v>
+        <v>0.0229206158050227</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171.3936593711931</v>
+        <v>42.96210738965419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140217850579747</v>
+        <v>0.7131509122532754</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-283.2703864095197</v>
+        <v>-128.3664969536162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00453181594081597</v>
+        <v>0.2004451600718109</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.2446232409952</v>
+        <v>104.3508366290975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008640542295020583</v>
+        <v>0.0003203755862749113</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1238.448261144499</v>
+        <v>-1258.607936368335</v>
       </c>
       <c r="C9" t="n">
-        <v>5.809382079037033e-61</v>
+        <v>1.526301797157229e-62</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-33.29375884049894</v>
+        <v>-30.60434505871893</v>
       </c>
       <c r="C10" t="n">
-        <v>2.498070168373189e-24</v>
+        <v>5.795755020322535e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.1546159521556</v>
+        <v>215.179312857918</v>
       </c>
       <c r="C11" t="n">
-        <v>7.904574513624637e-25</v>
+        <v>1.584129843721568e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>463.8440127897304</v>
+        <v>435.9591805685413</v>
       </c>
       <c r="C12" t="n">
-        <v>2.666212728145945e-305</v>
+        <v>3.585343340254555e-267</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03458655058229078</v>
+        <v>-0.02494793216347008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002713561335699522</v>
+        <v>0.03991983012623504</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.844423238925088e-05</v>
+        <v>3.57912271018716e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008488889823729646</v>
+        <v>0.01554169046054736</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.50398364204528</v>
+        <v>-25.92947680689074</v>
       </c>
       <c r="C15" t="n">
-        <v>2.324987435628096e-21</v>
+        <v>1.752725652642588e-23</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.838439992504709</v>
+        <v>6.258740397548511</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0019671419700907</v>
+        <v>0.01398315529817734</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2059.269163986026</v>
+        <v>-2204.984718017239</v>
       </c>
       <c r="C17" t="n">
-        <v>2.737382522420595e-08</v>
+        <v>4.237487337528569e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.406919013735</v>
+        <v>-279.5707451670112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6853668721677004</v>
+        <v>0.3011945415957252</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7246.153376389315</v>
+        <v>6772.266371410433</v>
       </c>
       <c r="C2" t="n">
-        <v>2.309296935884998e-26</v>
+        <v>3.091495950978651e-22</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-250.8558363683575</v>
+        <v>148.6227433579546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6864306346277296</v>
+        <v>0.8142633474790536</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.9482101169963</v>
+        <v>576.4355839728762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5574456282774208</v>
+        <v>0.3101396459399253</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.118890551836</v>
+        <v>1318.586939378448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05886682359417567</v>
+        <v>0.02010821168176978</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171.456653280231</v>
+        <v>-36.9606154081423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401266738327455</v>
+        <v>0.7518734240366013</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-319.6313935903854</v>
+        <v>-223.8808695505404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001447722449457324</v>
+        <v>0.02555819603430334</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.17047925266087</v>
+        <v>99.40429453026802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007371491017941251</v>
+        <v>0.0005817998790250989</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1261.125641195929</v>
+        <v>-1247.681187692295</v>
       </c>
       <c r="C9" t="n">
-        <v>1.699532441206913e-63</v>
+        <v>1.322528067265362e-61</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.46761384980978</v>
+        <v>-32.41558636150799</v>
       </c>
       <c r="C10" t="n">
-        <v>1.81864214633382e-23</v>
+        <v>2.327395389574531e-23</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.6915656444027</v>
+        <v>230.4473649741129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.46704984966367e-23</v>
+        <v>8.399444023428662e-28</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453.0117485811844</v>
+        <v>442.0104853269651</v>
       </c>
       <c r="C12" t="n">
-        <v>7.243068474440361e-294</v>
+        <v>5.417882395395106e-274</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03318423489715046</v>
+        <v>-0.0298520183727372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004351950758415339</v>
+        <v>0.01447272834016086</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.520582274948602e-05</v>
+        <v>3.880068859382592e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002482637423352186</v>
+        <v>0.009162854342617512</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.615851880704</v>
+        <v>-24.90550945871123</v>
       </c>
       <c r="C15" t="n">
-        <v>2.800409185140436e-23</v>
+        <v>8.384415631488711e-22</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.921881244529073</v>
+        <v>6.759928558929783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004900409272954761</v>
+        <v>0.007490433889891894</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1980.543597360227</v>
+        <v>-1751.417888830631</v>
       </c>
       <c r="C17" t="n">
-        <v>9.739452545008515e-08</v>
+        <v>3.047381424635422e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-152.6335538093086</v>
+        <v>-282.5811309649564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.571966023033373</v>
+        <v>0.2991243610071354</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7107.418008574205</v>
+        <v>7296.663555991818</v>
       </c>
       <c r="C2" t="n">
-        <v>9.359952149076006e-25</v>
+        <v>3.757937689641432e-23</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-267.9339641513905</v>
+        <v>-626.3237708660671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6698697613591327</v>
+        <v>0.3557746386386572</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.3775193598517</v>
+        <v>-129.9816084846104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6706697130104791</v>
+        <v>0.8330405860996495</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>980.3616808393755</v>
+        <v>693.2418940406366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0813123125993394</v>
+        <v>0.2603692758361625</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189.6484291229858</v>
+        <v>-33.76555384022868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1025823103680682</v>
+        <v>0.7718973038997154</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-342.2350206061867</v>
+        <v>-207.6063360360661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006121060632993127</v>
+        <v>0.03728785028398279</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.24355844388812</v>
+        <v>80.05253548812401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00413405688367942</v>
+        <v>0.005620277546041102</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1262.983153020569</v>
+        <v>-1265.680615212637</v>
       </c>
       <c r="C9" t="n">
-        <v>2.787362138786057e-63</v>
+        <v>2.377903781552092e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.11557859395043</v>
+        <v>-30.86929268565315</v>
       </c>
       <c r="C10" t="n">
-        <v>3.597915876487493e-19</v>
+        <v>3.653241024219768e-21</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.8757055706813</v>
+        <v>215.3671611559883</v>
       </c>
       <c r="C11" t="n">
-        <v>2.602453128932207e-23</v>
+        <v>1.934973261091925e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453.7646500716344</v>
+        <v>464.5138668965926</v>
       </c>
       <c r="C12" t="n">
-        <v>6.833416496807352e-291</v>
+        <v>3.344671169035491e-300</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03152177497855344</v>
+        <v>-0.01773280665650193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006390133555478478</v>
+        <v>0.1474258826896417</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.07932791633034e-05</v>
+        <v>2.292331543134412e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005790917493050178</v>
+        <v>0.1287518731481276</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.87415206620682</v>
+        <v>-23.64216014670562</v>
       </c>
       <c r="C15" t="n">
-        <v>7.66492541166706e-22</v>
+        <v>4.005349368841608e-20</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.7080693516463</v>
+        <v>7.700907990028298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007092628920948036</v>
+        <v>0.001931809311898648</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1795.476367445424</v>
+        <v>-1844.655651692567</v>
       </c>
       <c r="C17" t="n">
-        <v>1.394051839990599e-06</v>
+        <v>9.355277287036075e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-139.5221365610246</v>
+        <v>-462.5388360868985</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6072255849331378</v>
+        <v>0.08910411961319634</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6824.88563506239</v>
+        <v>6223.50974287706</v>
       </c>
       <c r="C2" t="n">
-        <v>1.892788285690484e-22</v>
+        <v>5.049042998306949e-19</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.564719817097966</v>
+        <v>206.6713868423355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9879750513312876</v>
+        <v>0.7464864878610826</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.2630561993803</v>
+        <v>782.751000691729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6315327765920399</v>
+        <v>0.1702770731126856</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1091.186003566621</v>
+        <v>1483.214139199416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05526852976666879</v>
+        <v>0.0092832380023826</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-103.0744600843066</v>
+        <v>-77.21334820449215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.376290861896182</v>
+        <v>0.5091113329083763</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-178.6616079540477</v>
+        <v>-223.4985329474478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07425541431069375</v>
+        <v>0.02617329955271449</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.4585377511297</v>
+        <v>91.23018685231938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002834988976680637</v>
+        <v>0.001688678772838237</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1256.473704283404</v>
+        <v>-1201.9205400017</v>
       </c>
       <c r="C9" t="n">
-        <v>9.880945366865247e-63</v>
+        <v>2.795417698386581e-57</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.9529010297879</v>
+        <v>-32.4363413093256</v>
       </c>
       <c r="C10" t="n">
-        <v>1.74913746655334e-21</v>
+        <v>2.739529208681029e-23</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.9837438072143</v>
+        <v>216.5011678113882</v>
       </c>
       <c r="C11" t="n">
-        <v>2.238582132092372e-25</v>
+        <v>7.860593787168775e-25</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.5253803160669</v>
+        <v>463.5862043768341</v>
       </c>
       <c r="C12" t="n">
-        <v>5.076514621459537e-293</v>
+        <v>3.303842775133711e-301</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01804240518400733</v>
+        <v>-0.0312384323633382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1185930396122073</v>
+        <v>0.01037391156737841</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.327472089072648e-05</v>
+        <v>3.381731478430233e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1156468555588377</v>
+        <v>0.02369478619780072</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.25022335643096</v>
+        <v>-23.71272487543796</v>
       </c>
       <c r="C15" t="n">
-        <v>7.792163154125591e-21</v>
+        <v>6.197890969005883e-20</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.721920162856348</v>
+        <v>8.846712799532639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005466773886505737</v>
+        <v>0.0004384083763430969</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1829.116218486033</v>
+        <v>-1480.054684185312</v>
       </c>
       <c r="C17" t="n">
-        <v>8.095164437960449e-07</v>
+        <v>7.840180706595151e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-433.490866502228</v>
+        <v>-221.0081882479477</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1086456457839873</v>
+        <v>0.4161061458262869</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6670.82877788922</v>
+        <v>6778.323971204394</v>
       </c>
       <c r="C2" t="n">
-        <v>1.270707434566914e-20</v>
+        <v>4.682774967396987e-22</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-70.60405406339146</v>
+        <v>-211.806706859307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9143903012374937</v>
+        <v>0.7423065920013899</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.1020087968972</v>
+        <v>367.8986827526811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5601459187167891</v>
+        <v>0.5237665969545897</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141.389819906832</v>
+        <v>1103.828304497855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05375105700150748</v>
+        <v>0.05551665643462327</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101.0579117785924</v>
+        <v>-55.02837299913745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3857763895090811</v>
+        <v>0.6356089477782173</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-258.7553571851192</v>
+        <v>-117.7111544732977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009848315223106743</v>
+        <v>0.2369485278690177</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.61535243032731</v>
+        <v>109.1030312158527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0021831102216253</v>
+        <v>0.0001755285764330724</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1288.607872151503</v>
+        <v>-1178.883165316118</v>
       </c>
       <c r="C9" t="n">
-        <v>5.445782289229235e-66</v>
+        <v>2.083497091335132e-55</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.30666541128859</v>
+        <v>-30.88065426810451</v>
       </c>
       <c r="C10" t="n">
-        <v>2.680083955685758e-23</v>
+        <v>2.787650763915135e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.4914120621078</v>
+        <v>202.1182063705942</v>
       </c>
       <c r="C11" t="n">
-        <v>4.820853973202292e-31</v>
+        <v>9.561140384348961e-22</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.9648389359232</v>
+        <v>446.7741323709686</v>
       </c>
       <c r="C12" t="n">
-        <v>3.125464131548731e-285</v>
+        <v>3.638130397458268e-280</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03111073233341614</v>
+        <v>-0.02639447795500077</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007327455886340658</v>
+        <v>0.02987725243512843</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.251161640782306e-05</v>
+        <v>3.727041043448277e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004210510181467801</v>
+        <v>0.01243445143050265</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.73204602982809</v>
+        <v>-24.46205756312416</v>
       </c>
       <c r="C15" t="n">
-        <v>1.208915043943535e-21</v>
+        <v>1.7373709030365e-21</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.154979109051846</v>
+        <v>8.39990067573178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000269551094915492</v>
+        <v>0.0007112519274289875</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1813.732955803298</v>
+        <v>-2032.062406501771</v>
       </c>
       <c r="C17" t="n">
-        <v>1.079533602985758e-06</v>
+        <v>5.416096613617508e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8.162657893225173</v>
+        <v>-421.123064619183</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9759683199327545</v>
+        <v>0.119683113082327</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6183.942083111004</v>
+        <v>6469.865614423885</v>
       </c>
       <c r="C2" t="n">
-        <v>1.173062044564395e-18</v>
+        <v>6.848341149141642e-18</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-416.8167228932008</v>
+        <v>-476.9148289161361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5118729330528363</v>
+        <v>0.488441144701511</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.12245248641511</v>
+        <v>-99.81275351369584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.972016346961637</v>
+        <v>0.8740177008336181</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.4973834719331</v>
+        <v>710.8134993487113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1640120741991107</v>
+        <v>0.2583434574887769</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.41067381973312</v>
+        <v>-120.1862164420497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8133024048413943</v>
+        <v>0.3033930943800523</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-159.2904006829604</v>
+        <v>-211.4804593348385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1098826109073981</v>
+        <v>0.03479434624262429</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116.6667274796549</v>
+        <v>108.335424797817</v>
       </c>
       <c r="C8" t="n">
-        <v>5.295739956656082e-05</v>
+        <v>0.0001958494675141304</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1221.773092962514</v>
+        <v>-1253.634580223938</v>
       </c>
       <c r="C9" t="n">
-        <v>4.299860900755978e-60</v>
+        <v>4.215017714181354e-62</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.99506029814167</v>
+        <v>-31.88122448690157</v>
       </c>
       <c r="C10" t="n">
-        <v>2.151583474717221e-20</v>
+        <v>1.359533371565941e-22</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.4547272035642</v>
+        <v>261.7703611497037</v>
       </c>
       <c r="C11" t="n">
-        <v>4.789389007818374e-31</v>
+        <v>7.797171244032146e-35</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>449.8343774007604</v>
+        <v>455.2287478640305</v>
       </c>
       <c r="C12" t="n">
-        <v>8.87962000513093e-289</v>
+        <v>2.634591681065067e-287</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0239228372875666</v>
+        <v>-0.02019380558666431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03524456744203015</v>
+        <v>0.09553924873788543</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.677250496924709e-05</v>
+        <v>2.616403421535114e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01063136448382527</v>
+        <v>0.0768786233147175</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-22.41693184246273</v>
+        <v>-20.80546747949741</v>
       </c>
       <c r="C15" t="n">
-        <v>3.772219685504229e-18</v>
+        <v>1.138340654470172e-15</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.32534041507873</v>
+        <v>11.82637353805136</v>
       </c>
       <c r="C16" t="n">
-        <v>1.065032915149674e-06</v>
+        <v>4.221567452558846e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1451.19014803831</v>
+        <v>-1480.272157185571</v>
       </c>
       <c r="C17" t="n">
-        <v>8.950997559582571e-05</v>
+        <v>7.406634751459634e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-86.73784584936004</v>
+        <v>-310.2107332385683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7467841628054996</v>
+        <v>0.2549510942898031</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ34555815" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35753127" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36811193" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37848199" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ38871872" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ39881069" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ40903302" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41944001" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43063316" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11373791" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12375527" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13501561" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14519540" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ15577260" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16891102" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ17888260" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19092725" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20212789" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ11373791" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12375527" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13501561" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14519540" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ15577260" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16891102" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ17888260" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19092725" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20212789" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53618311" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ55028349" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ56321585" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ57653283" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58959909" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ00442572" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02136462" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03498298" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05024032" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6624.091939615049</v>
+        <v>4496.872476249557</v>
       </c>
       <c r="C2" t="n">
-        <v>1.152690925201376e-20</v>
+        <v>9.729674104142308e-12</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.3432100179251</v>
+        <v>-164.6210249552308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7253843033282803</v>
+        <v>0.7976461061111442</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>849.7573214361937</v>
+        <v>309.7811681157162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1457770827067722</v>
+        <v>0.591365010807396</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1535.922120336277</v>
+        <v>1042.246039493883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008493861009430104</v>
+        <v>0.07060134075934382</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62.61052269387119</v>
+        <v>-168.5200427473519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5908718352635725</v>
+        <v>0.1467781059379066</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-258.0216149905932</v>
+        <v>-297.6546716227731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009858628649475147</v>
+        <v>0.002959514258869525</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.02413245656567</v>
+        <v>97.60840446064513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006990887960258856</v>
+        <v>0.0007238632600293308</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1277.030284844331</v>
+        <v>-1259.703446894078</v>
       </c>
       <c r="C9" t="n">
-        <v>1.289458636219465e-64</v>
+        <v>3.412746590754606e-63</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.84530079177129</v>
+        <v>-31.84086001929758</v>
       </c>
       <c r="C10" t="n">
-        <v>4.826909747181773e-24</v>
+        <v>1.541041252806999e-22</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.0369259702444</v>
+        <v>240.9827134756878</v>
       </c>
       <c r="C11" t="n">
-        <v>6.30923317330064e-30</v>
+        <v>8.06660240223767e-32</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.4485496797773</v>
+        <v>490.8551467485837</v>
       </c>
       <c r="C12" t="n">
-        <v>1.818890819261763e-280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02413144128049513</v>
+        <v>-0.05711205283492612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04694911845140084</v>
+        <v>2.109220685877455e-06</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.255668937909595e-05</v>
+        <v>1.314354832509633e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02730461039220844</v>
+        <v>0.3668860460825933</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.83877854850373</v>
+        <v>21.06240722750524</v>
       </c>
       <c r="C15" t="n">
-        <v>1.596093540208e-23</v>
+        <v>4.235155546805029e-24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.24351491082813</v>
+        <v>-2082.027590567587</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004313573001920735</v>
+        <v>2.778542353876516e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1966.248626537106</v>
+        <v>-833.5358948516903</v>
       </c>
       <c r="C17" t="n">
-        <v>1.4318288446911e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-149.9071073948375</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5810298995962568</v>
+        <v>0.001296616215231087</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6770.416538600455</v>
+        <v>4422.988338311907</v>
       </c>
       <c r="C2" t="n">
-        <v>7.481096794173274e-21</v>
+        <v>1.422740192799934e-11</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.71413177178229</v>
+        <v>-145.930003186061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9555010747403475</v>
+        <v>0.8194569701170819</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.9651397558928</v>
+        <v>417.303174721664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4392297329630611</v>
+        <v>0.46596391253657</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1219.922269252028</v>
+        <v>1151.468148460656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04135134155520814</v>
+        <v>0.04404590271522624</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94.6889818414727</v>
+        <v>-174.8049128633277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4183051311744916</v>
+        <v>0.1335848156161136</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-227.751984452231</v>
+        <v>-358.0182334438041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02316714409058028</v>
+        <v>0.0003520794865589473</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.5538912029445</v>
+        <v>99.4691486942335</v>
       </c>
       <c r="C8" t="n">
-        <v>9.097129418943146e-05</v>
+        <v>0.0005748180755958172</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1340.182653460834</v>
+        <v>-1229.94541642013</v>
       </c>
       <c r="C9" t="n">
-        <v>6.49053520592413e-71</v>
+        <v>2.777397398605828e-60</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.47804287150083</v>
+        <v>-32.86456249085393</v>
       </c>
       <c r="C10" t="n">
-        <v>1.173917301664931e-19</v>
+        <v>6.33645500619225e-24</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197.7280554508511</v>
+        <v>230.2418351074181</v>
       </c>
       <c r="C11" t="n">
-        <v>4.532913515899602e-21</v>
+        <v>6.071761724259936e-29</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>439.7447124841459</v>
+        <v>493.447658367984</v>
       </c>
       <c r="C12" t="n">
-        <v>1.302857052492772e-273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0225813169988327</v>
+        <v>-0.05062761928450343</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06134256784186077</v>
+        <v>2.091610242848406e-05</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.878566165154093e-05</v>
+        <v>-1.223703386046846e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05097137887155125</v>
+        <v>0.3875878239324176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.1258948483392</v>
+        <v>20.74992108695232</v>
       </c>
       <c r="C15" t="n">
-        <v>7.206748656493802e-21</v>
+        <v>5.021406028823581e-23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.794377387350583</v>
+        <v>-1937.357950994625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004885401152967951</v>
+        <v>2.339995625379543e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2231.34871761781</v>
+        <v>-523.4466554814555</v>
       </c>
       <c r="C17" t="n">
-        <v>2.624884254325082e-09</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-393.8029110088944</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1459828770894746</v>
+        <v>0.04360097851493343</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7461.884322494781</v>
+        <v>4143.313236600947</v>
       </c>
       <c r="C2" t="n">
-        <v>5.608152917964229e-26</v>
+        <v>1.74783348704192e-10</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-283.7418021681182</v>
+        <v>36.27227987259309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6592626827162009</v>
+        <v>0.9540707608864176</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.3786852737967</v>
+        <v>494.2482657092668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7480920009085562</v>
+        <v>0.3805547423593421</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.6644498136789</v>
+        <v>1292.194582649361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1231638496105257</v>
+        <v>0.02173747113531859</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114.8958036545955</v>
+        <v>-74.16550469808726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3249537074210901</v>
+        <v>0.5245872005160312</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-257.2481792334563</v>
+        <v>-268.9244094965698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0102516230227415</v>
+        <v>0.007336081255786389</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.15787536609291</v>
+        <v>117.6649615142687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00134714471489296</v>
+        <v>4.996857639471496e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1360.382298968127</v>
+        <v>-1358.685726580274</v>
       </c>
       <c r="C9" t="n">
-        <v>9.080878894725828e-73</v>
+        <v>6.790041288225936e-73</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.24890916056569</v>
+        <v>-29.51211666015522</v>
       </c>
       <c r="C10" t="n">
-        <v>5.244779507303432e-23</v>
+        <v>1.563099180713687e-19</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217.6541517995254</v>
+        <v>245.0999265377289</v>
       </c>
       <c r="C11" t="n">
-        <v>5.367097120166904e-25</v>
+        <v>1.220334435618457e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.859520305143</v>
+        <v>482.7814394727482</v>
       </c>
       <c r="C12" t="n">
-        <v>3.485212817436992e-278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02008937285535889</v>
+        <v>-0.03893310327196309</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09621111740061811</v>
+        <v>0.001123553619089084</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.3174340070814e-05</v>
+        <v>-1.015239514867502e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1167883344416816</v>
+        <v>0.4732379386786593</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.92639966440364</v>
+        <v>21.12469835813259</v>
       </c>
       <c r="C15" t="n">
-        <v>2.660852312902765e-20</v>
+        <v>9.68689168101299e-24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.065632204777085</v>
+        <v>-1857.151379609641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04651687030465003</v>
+        <v>6.543988447565853e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1667.959216028098</v>
+        <v>-897.7793169939675</v>
       </c>
       <c r="C17" t="n">
-        <v>9.194723969321303e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-428.6262390009616</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1145259578556049</v>
+        <v>0.0005485917058613303</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6823.916890347897</v>
+        <v>4797.270677598525</v>
       </c>
       <c r="C2" t="n">
-        <v>1.286827525840077e-21</v>
+        <v>1.680148257276531e-13</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.62280008119797</v>
+        <v>356.1874715910333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.88824617749574</v>
+        <v>0.5722912827633981</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>671.6669506372211</v>
+        <v>560.4807939529751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2537434100175722</v>
+        <v>0.3215056789393813</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1337.527887343113</v>
+        <v>1313.336556924878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0229206158050227</v>
+        <v>0.02008640680211482</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.96210738965419</v>
+        <v>-133.9843667422433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7131509122532754</v>
+        <v>0.2471494975643119</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-128.3664969536162</v>
+        <v>-305.9068112509631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2004451600718109</v>
+        <v>0.002107937551021204</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.3508366290975</v>
+        <v>84.46282987360235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003203755862749113</v>
+        <v>0.003368384358608305</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1258.607936368335</v>
+        <v>-1217.467571364918</v>
       </c>
       <c r="C9" t="n">
-        <v>1.526301797157229e-62</v>
+        <v>1.677584953401479e-59</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.60434505871893</v>
+        <v>-35.42207760988109</v>
       </c>
       <c r="C10" t="n">
-        <v>5.795755020322535e-21</v>
+        <v>7.928533494025853e-28</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.179312857918</v>
+        <v>216.8504946198519</v>
       </c>
       <c r="C11" t="n">
-        <v>1.584129843721568e-24</v>
+        <v>3.292404952100307e-26</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>435.9591805685413</v>
+        <v>480.0785205629753</v>
       </c>
       <c r="C12" t="n">
-        <v>3.585343340254555e-267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02494793216347008</v>
+        <v>-0.04739500867771901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03991983012623504</v>
+        <v>6.353711883187624e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.57912271018716e-05</v>
+        <v>-1.024040800574828e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01554169046054736</v>
+        <v>0.4672044797678258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-25.92947680689074</v>
+        <v>19.71418271496471</v>
       </c>
       <c r="C15" t="n">
-        <v>1.752725652642588e-23</v>
+        <v>9.334402684600882e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.258740397548511</v>
+        <v>-2112.208825861909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01398315529817734</v>
+        <v>1.737410221792097e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2204.984718017239</v>
+        <v>-1021.451760982004</v>
       </c>
       <c r="C17" t="n">
-        <v>4.237487337528569e-09</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-279.5707451670112</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3011945415957252</v>
+        <v>7.368076070318396e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6772.266371410433</v>
+        <v>4434.152528589163</v>
       </c>
       <c r="C2" t="n">
-        <v>3.091495950978651e-22</v>
+        <v>2.989100340536148e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.6227433579546</v>
+        <v>-272.17606752957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8142633474790536</v>
+        <v>0.6733103960826017</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576.4355839728762</v>
+        <v>232.9950199030217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3101396459399253</v>
+        <v>0.6899997065521939</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1318.586939378448</v>
+        <v>974.7509882364629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02010821168176978</v>
+        <v>0.09490748574080027</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36.9606154081423</v>
+        <v>6.295845859621068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7518734240366013</v>
+        <v>0.956722252880932</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-223.8808695505404</v>
+        <v>-237.3389473825407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02555819603430334</v>
+        <v>0.01728113721835618</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.40429453026802</v>
+        <v>74.96724847998881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005817998790250989</v>
+        <v>0.009708257783981019</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1247.681187692295</v>
+        <v>-1278.844086016856</v>
       </c>
       <c r="C9" t="n">
-        <v>1.322528067265362e-61</v>
+        <v>1.812726288843821e-64</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.41558636150799</v>
+        <v>-28.69279492128251</v>
       </c>
       <c r="C10" t="n">
-        <v>2.327395389574531e-23</v>
+        <v>1.44411234520529e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.4473649741129</v>
+        <v>208.9544776715521</v>
       </c>
       <c r="C11" t="n">
-        <v>8.399444023428662e-28</v>
+        <v>2.188461371355808e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>442.0104853269651</v>
+        <v>487.8752980738983</v>
       </c>
       <c r="C12" t="n">
-        <v>5.417882395395106e-274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0298520183727372</v>
+        <v>-0.04403348836530528</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01447272834016086</v>
+        <v>0.0002554856146899614</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.880068859382592e-05</v>
+        <v>-1.216351220535211e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009162854342617512</v>
+        <v>0.3959983145323845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.90550945871123</v>
+        <v>22.84808268720536</v>
       </c>
       <c r="C15" t="n">
-        <v>8.384415631488711e-22</v>
+        <v>6.720048821400636e-28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.759928558929783</v>
+        <v>-1902.974230572288</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007490433889891894</v>
+        <v>4.25926006968432e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1751.417888830631</v>
+        <v>-948.5936062404819</v>
       </c>
       <c r="C17" t="n">
-        <v>3.047381424635422e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-282.5811309649564</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2991243610071354</v>
+        <v>0.0002602017987684033</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7296.663555991818</v>
+        <v>4470.605061289488</v>
       </c>
       <c r="C2" t="n">
-        <v>3.757937689641432e-23</v>
+        <v>9.454050121191386e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-626.3237708660671</v>
+        <v>-387.9118597628981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3557746386386572</v>
+        <v>0.5426307810015889</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-129.9816084846104</v>
+        <v>262.3203863008182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8330405860996495</v>
+        <v>0.6458242815323549</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>693.2418940406366</v>
+        <v>943.4595287718888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2603692758361625</v>
+        <v>0.098026260592917</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33.76555384022868</v>
+        <v>-5.197388357715909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7718973038997154</v>
+        <v>0.9645839636360383</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-207.6063360360661</v>
+        <v>-207.1189161884695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03728785028398279</v>
+        <v>0.03902282733817476</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.05253548812401</v>
+        <v>116.5297604484192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005620277546041102</v>
+        <v>6.414407518595039e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1265.680615212637</v>
+        <v>-1257.030660679742</v>
       </c>
       <c r="C9" t="n">
-        <v>2.377903781552092e-63</v>
+        <v>3.992180888221054e-62</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.86929268565315</v>
+        <v>-30.12876078380984</v>
       </c>
       <c r="C10" t="n">
-        <v>3.653241024219768e-21</v>
+        <v>3.279575310469123e-20</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.3671611559883</v>
+        <v>232.1092773733041</v>
       </c>
       <c r="C11" t="n">
-        <v>1.934973261091925e-24</v>
+        <v>5.303981698724249e-29</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>464.5138668965926</v>
+        <v>489.7900030358966</v>
       </c>
       <c r="C12" t="n">
-        <v>3.344671169035491e-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01773280665650193</v>
+        <v>-0.05707581468451602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1474258826896417</v>
+        <v>1.747621648213703e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.292331543134412e-05</v>
+        <v>4.062843990407153e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1287518731481276</v>
+        <v>0.7739237313976197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.64216014670562</v>
+        <v>19.96638629280612</v>
       </c>
       <c r="C15" t="n">
-        <v>4.005349368841608e-20</v>
+        <v>1.096746626565387e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.700907990028298</v>
+        <v>-1702.531338139518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001931809311898648</v>
+        <v>6.628982919907713e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1844.655651692567</v>
+        <v>-729.5365642771851</v>
       </c>
       <c r="C17" t="n">
-        <v>9.355277287036075e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-462.5388360868985</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.08910411961319634</v>
+        <v>0.005293833061032397</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6223.50974287706</v>
+        <v>5330.240436391769</v>
       </c>
       <c r="C2" t="n">
-        <v>5.049042998306949e-19</v>
+        <v>5.257329139629555e-16</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.6713868423355</v>
+        <v>-620.412249972472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7464864878610826</v>
+        <v>0.3295344625728279</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782.751000691729</v>
+        <v>-429.1304821543889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1702770731126856</v>
+        <v>0.455672032873651</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.214139199416</v>
+        <v>353.5256298349855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0092832380023826</v>
+        <v>0.5383973616226482</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77.21334820449215</v>
+        <v>-160.5817944861521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5091113329083763</v>
+        <v>0.166844290965651</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-223.4985329474478</v>
+        <v>-326.6185708578657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02617329955271449</v>
+        <v>0.00104453396434151</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.23018685231938</v>
+        <v>77.88897539995452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001688678772838237</v>
+        <v>0.006629469420090867</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1201.9205400017</v>
+        <v>-1268.012425821067</v>
       </c>
       <c r="C9" t="n">
-        <v>2.795417698386581e-57</v>
+        <v>1.870454006245346e-64</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.4363413093256</v>
+        <v>-29.07859243764214</v>
       </c>
       <c r="C10" t="n">
-        <v>2.739529208681029e-23</v>
+        <v>2.835532072557841e-19</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.5011678113882</v>
+        <v>207.7244468047562</v>
       </c>
       <c r="C11" t="n">
-        <v>7.860593787168775e-25</v>
+        <v>4.837842116607103e-24</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>463.5862043768341</v>
+        <v>496.9141417469834</v>
       </c>
       <c r="C12" t="n">
-        <v>3.303842775133711e-301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0312384323633382</v>
+        <v>-0.04953344746280223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01037391156737841</v>
+        <v>3.069168947776954e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.381731478430233e-05</v>
+        <v>-5.55280147120031e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02369478619780072</v>
+        <v>0.6930012614805374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-23.71272487543796</v>
+        <v>20.63935863027925</v>
       </c>
       <c r="C15" t="n">
-        <v>6.197890969005883e-20</v>
+        <v>3.767875630781358e-23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.846712799532639</v>
+        <v>-1931.724780269601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004384083763430969</v>
+        <v>2.153244312666102e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1480.054684185312</v>
+        <v>-938.1338442671666</v>
       </c>
       <c r="C17" t="n">
-        <v>7.840180706595151e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-221.0081882479477</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4161061458262869</v>
+        <v>0.000270557132082621</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6778.323971204394</v>
+        <v>4948.774379678331</v>
       </c>
       <c r="C2" t="n">
-        <v>4.682774967396987e-22</v>
+        <v>5.819785775611158e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-211.806706859307</v>
+        <v>-464.4024591230505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7423065920013899</v>
+        <v>0.4873873289103468</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.8986827526811</v>
+        <v>-370.1110288586219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5237665969545897</v>
+        <v>0.5418842439111959</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1103.828304497855</v>
+        <v>388.3315285208589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05551665643462327</v>
+        <v>0.5216965324180717</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55.02837299913745</v>
+        <v>-124.9932191514122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6356089477782173</v>
+        <v>0.2801493990261398</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-117.7111544732977</v>
+        <v>-251.5798958054388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2369485278690177</v>
+        <v>0.01126157862665861</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.1030312158527</v>
+        <v>114.5294362048829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001755285764330724</v>
+        <v>6.593560122337742e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1178.883165316118</v>
+        <v>-1229.454883298102</v>
       </c>
       <c r="C9" t="n">
-        <v>2.083497091335132e-55</v>
+        <v>7.565787787751111e-61</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.88065426810451</v>
+        <v>-31.18382797184498</v>
       </c>
       <c r="C10" t="n">
-        <v>2.787650763915135e-21</v>
+        <v>4.290151301413864e-22</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.1182063705942</v>
+        <v>244.1045657084144</v>
       </c>
       <c r="C11" t="n">
-        <v>9.561140384348961e-22</v>
+        <v>3.353530381134353e-32</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.7741323709686</v>
+        <v>492.2222581400159</v>
       </c>
       <c r="C12" t="n">
-        <v>3.638130397458268e-280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02639447795500077</v>
+        <v>-0.04372547726235526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02987725243512843</v>
+        <v>0.0002420151702632389</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.727041043448277e-05</v>
+        <v>-4.56871260519353e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01243445143050265</v>
+        <v>0.7467162034970483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.46205756312416</v>
+        <v>21.44743945008448</v>
       </c>
       <c r="C15" t="n">
-        <v>1.7373709030365e-21</v>
+        <v>3.568977092807568e-24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.39990067573178</v>
+        <v>-1769.067446826506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007112519274289875</v>
+        <v>2.08506060737436e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2032.062406501771</v>
+        <v>-867.9896398946451</v>
       </c>
       <c r="C17" t="n">
-        <v>5.416096613617508e-08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-421.123064619183</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.119683113082327</v>
+        <v>0.00077554611462132</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6469.865614423885</v>
+        <v>4294.865892111529</v>
       </c>
       <c r="C2" t="n">
-        <v>6.848341149141642e-18</v>
+        <v>1.135652535687008e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-476.9148289161361</v>
+        <v>342.2994154451625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.488441144701511</v>
+        <v>0.5991505093045792</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-99.81275351369584</v>
+        <v>806.733589743108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8740177008336181</v>
+        <v>0.1682651295837085</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.8134993487113</v>
+        <v>1634.631059860695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2583434574887769</v>
+        <v>0.005203472270751468</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120.1862164420497</v>
+        <v>-83.52100161925478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3033930943800523</v>
+        <v>0.471066830085253</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-211.4804593348385</v>
+        <v>-215.7972702458153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03479434624262429</v>
+        <v>0.02975174212950088</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.335424797817</v>
+        <v>100.9430726903044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001958494675141304</v>
+        <v>0.0004638240907332508</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1253.634580223938</v>
+        <v>-1217.418965556516</v>
       </c>
       <c r="C9" t="n">
-        <v>4.215017714181354e-62</v>
+        <v>1.668077735439301e-59</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.88122448690157</v>
+        <v>-30.07482439976537</v>
       </c>
       <c r="C10" t="n">
-        <v>1.359533371565941e-22</v>
+        <v>2.14716551668145e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.7703611497037</v>
+        <v>216.5523416602063</v>
       </c>
       <c r="C11" t="n">
-        <v>7.797171244032146e-35</v>
+        <v>9.337930926484955e-26</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455.2287478640305</v>
+        <v>485.4570290907611</v>
       </c>
       <c r="C12" t="n">
-        <v>2.634591681065067e-287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02019380558666431</v>
+        <v>-0.04064940148482991</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09553924873788543</v>
+        <v>0.0006296619988801997</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.616403421535114e-05</v>
+        <v>-2.053995063349468e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0768786233147175</v>
+        <v>0.1451371894048717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.80546747949741</v>
+        <v>19.60068000654254</v>
       </c>
       <c r="C15" t="n">
-        <v>1.138340654470172e-15</v>
+        <v>3.940889026226238e-21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.82637353805136</v>
+        <v>-2157.087584133914</v>
       </c>
       <c r="C16" t="n">
-        <v>4.221567452558846e-06</v>
+        <v>8.115798133857146e-09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1480.272157185571</v>
+        <v>-1366.868699354145</v>
       </c>
       <c r="C17" t="n">
-        <v>7.406634751459634e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-310.2107332385683</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2549510942898031</v>
+        <v>1.136424905356178e-07</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/France_other.xlsx
+++ b/outputs/ML_Results/dist_commute/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ53618311" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ55028349" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ56321585" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ57653283" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58959909" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00442572" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02136462" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03498298" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05024032" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30178487" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31112906" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ32084908" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ33052848" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ33844621" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34662609" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35569718" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36333999" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37075680" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4496.872476249557</v>
+        <v>4496.872476180703</v>
       </c>
       <c r="C2" t="n">
-        <v>9.729674104142308e-12</v>
+        <v>9.729673967504724e-12</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-164.6210249552308</v>
+        <v>-164.6210249632376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7976461061111442</v>
+        <v>0.7976461061117417</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.7811681157162</v>
+        <v>309.78116810143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.591365010807396</v>
+        <v>0.5913650108564608</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.246039493883</v>
+        <v>1042.246039498364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07060134075934382</v>
+        <v>0.07060134075051834</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168.5200427473519</v>
+        <v>-168.5200427513994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1467781059379066</v>
+        <v>0.1467781059276716</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-297.6546716227731</v>
+        <v>-297.6546716251053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002959514258869525</v>
+        <v>0.00295951425861655</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.60840446064513</v>
+        <v>97.60840446877361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007238632600293308</v>
+        <v>0.0007238632593778102</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1259.703446894078</v>
+        <v>-1259.703446890389</v>
       </c>
       <c r="C9" t="n">
-        <v>3.412746590754606e-63</v>
+        <v>3.412746600069771e-63</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.84086001929758</v>
+        <v>-31.84086001894661</v>
       </c>
       <c r="C10" t="n">
-        <v>1.541041252806999e-22</v>
+        <v>1.541041257236822e-22</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.9827134756878</v>
+        <v>240.9827134767319</v>
       </c>
       <c r="C11" t="n">
-        <v>8.06660240223767e-32</v>
+        <v>8.066602398564864e-32</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>490.8551467485837</v>
+        <v>490.855146761331</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05711205283492612</v>
+        <v>-5.711205281951443</v>
       </c>
       <c r="C13" t="n">
-        <v>2.109220685877455e-06</v>
+        <v>2.109220704377279e-06</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.314354832509633e-05</v>
+        <v>13.14354849392607</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3668860460825933</v>
+        <v>0.3668860397355104</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.06240722750524</v>
+        <v>21.06240722750401</v>
       </c>
       <c r="C15" t="n">
-        <v>4.235155546805029e-24</v>
+        <v>4.235155546830427e-24</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2082.027590567587</v>
+        <v>-20.82027590567703</v>
       </c>
       <c r="C16" t="n">
-        <v>2.778542353876516e-08</v>
+        <v>2.77854235387182e-08</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-833.5358948516903</v>
+        <v>-8.335358948517108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001296616215231087</v>
+        <v>0.001296616215230727</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4422.988338311907</v>
+        <v>4422.988338546013</v>
       </c>
       <c r="C2" t="n">
-        <v>1.422740192799934e-11</v>
+        <v>1.422740268030421e-11</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-145.930003186061</v>
+        <v>-145.9300031923184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8194569701170819</v>
+        <v>0.8194569701172434</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417.303174721664</v>
+        <v>417.3031747151371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.46596391253657</v>
+        <v>0.4659639125635754</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1151.468148460656</v>
+        <v>1151.468148449598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04404590271522624</v>
+        <v>0.04404590273328587</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174.8049128633277</v>
+        <v>-174.804912863925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1335848156161136</v>
+        <v>0.1335848156145785</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-358.0182334438041</v>
+        <v>-358.0182334443325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003520794865589473</v>
+        <v>0.0003520794865496461</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.4691486942335</v>
+        <v>99.46914869804068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005748180755958172</v>
+        <v>0.0005748180754115696</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1229.94541642013</v>
+        <v>-1229.945416423949</v>
       </c>
       <c r="C9" t="n">
-        <v>2.777397398605828e-60</v>
+        <v>2.777397390065489e-60</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.86456249085393</v>
+        <v>-32.86456249216668</v>
       </c>
       <c r="C10" t="n">
-        <v>6.33645500619225e-24</v>
+        <v>6.33645492820152e-24</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.2418351074181</v>
+        <v>230.2418350994987</v>
       </c>
       <c r="C11" t="n">
-        <v>6.071761724259936e-29</v>
+        <v>6.071761743376208e-29</v>
       </c>
     </row>
     <row r="12">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>493.447658367984</v>
+        <v>493.4476583677021</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05062761928450343</v>
+        <v>-5.062761928042089</v>
       </c>
       <c r="C13" t="n">
-        <v>2.091610242848406e-05</v>
+        <v>2.091610247801368e-05</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.223703386046846e-05</v>
+        <v>-12.2370337979823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3875878239324176</v>
+        <v>0.3875878262164733</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.74992108695232</v>
+        <v>20.74992108695143</v>
       </c>
       <c r="C15" t="n">
-        <v>5.021406028823581e-23</v>
+        <v>5.021406028845493e-23</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1937.357950994625</v>
+        <v>-19.37357950994707</v>
       </c>
       <c r="C16" t="n">
-        <v>2.339995625379543e-07</v>
+        <v>2.339995625376974e-07</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-523.4466554814555</v>
+        <v>-5.234466554815003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04360097851493343</v>
+        <v>0.04360097851491568</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4143.313236600947</v>
+        <v>4143.31323665739</v>
       </c>
       <c r="C2" t="n">
-        <v>1.74783348704192e-10</v>
+        <v>1.747833403982198e-10</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.27227987259309</v>
+        <v>36.27227986966085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9540707608864176</v>
+        <v>0.9540707608868877</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.2482657092668</v>
+        <v>494.2482657030907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3805547423593421</v>
+        <v>0.3805547422838913</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.194582649361</v>
+        <v>1292.194582652132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02173747113531859</v>
+        <v>0.02173747114477417</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74.16550469808726</v>
+        <v>-74.1655046977171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5245872005160312</v>
+        <v>0.5245872005177191</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-268.9244094965698</v>
+        <v>-268.9244094962842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007336081255786389</v>
+        <v>0.007336081255790999</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.6649615142687</v>
+        <v>117.6649615146658</v>
       </c>
       <c r="C8" t="n">
-        <v>4.996857639471496e-05</v>
+        <v>4.996857638910265e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1358.685726580274</v>
+        <v>-1358.685726580264</v>
       </c>
       <c r="C9" t="n">
-        <v>6.790041288225936e-73</v>
+        <v>6.790041288006619e-73</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.51211666015522</v>
+        <v>-29.51211666008831</v>
       </c>
       <c r="C10" t="n">
-        <v>1.563099180713687e-19</v>
+        <v>1.563099179150611e-19</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>245.0999265377289</v>
+        <v>245.0999265364883</v>
       </c>
       <c r="C11" t="n">
-        <v>1.220334435618457e-32</v>
+        <v>1.220334437057884e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>482.7814394727482</v>
+        <v>482.7814394710852</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03893310327196309</v>
+        <v>-3.893310327384823</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001123553619089084</v>
+        <v>0.001123553619151801</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.015239514867502e-05</v>
+        <v>-10.15239526495529</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4732379386786593</v>
+        <v>0.4732379335217457</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.12469835813259</v>
+        <v>21.12469835813101</v>
       </c>
       <c r="C15" t="n">
-        <v>9.68689168101299e-24</v>
+        <v>9.686891681085823e-24</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1857.151379609641</v>
+        <v>-18.57151379609788</v>
       </c>
       <c r="C16" t="n">
-        <v>6.543988447565853e-07</v>
+        <v>6.543988447552851e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-897.7793169939675</v>
+        <v>-8.977793169940096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005485917058613303</v>
+        <v>0.0005485917058610134</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4797.270677598525</v>
+        <v>4797.270677465056</v>
       </c>
       <c r="C2" t="n">
-        <v>1.680148257276531e-13</v>
+        <v>1.680148285373698e-13</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>356.1874715910333</v>
+        <v>356.187471532424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5722912827633981</v>
+        <v>0.5722912827635243</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.4807939529751</v>
+        <v>560.4807939263194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3215056789393813</v>
+        <v>0.3215056789265007</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.336556924878</v>
+        <v>1313.336556865562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02008640680211482</v>
+        <v>0.02008640678718877</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133.9843667422433</v>
+        <v>-133.9843667481778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2471494975643119</v>
+        <v>0.2471494975440465</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-305.9068112509631</v>
+        <v>-305.9068112537932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002107937551021204</v>
+        <v>0.00210793755084316</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.46282987360235</v>
+        <v>84.46282986908571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003368384358608305</v>
+        <v>0.003368384360409313</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1217.467571364918</v>
+        <v>-1217.467571358372</v>
       </c>
       <c r="C9" t="n">
-        <v>1.677584953401479e-59</v>
+        <v>1.677584953615359e-59</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-35.42207760988109</v>
+        <v>-35.42207760984488</v>
       </c>
       <c r="C10" t="n">
-        <v>7.928533494025853e-28</v>
+        <v>7.928533494273726e-28</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.8504946198519</v>
+        <v>216.8504946218912</v>
       </c>
       <c r="C11" t="n">
-        <v>3.292404952100307e-26</v>
+        <v>3.292404948020544e-26</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>480.0785205629753</v>
+        <v>480.0785205757613</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04739500867771901</v>
+        <v>-4.739500868130825</v>
       </c>
       <c r="C13" t="n">
-        <v>6.353711883187624e-05</v>
+        <v>6.353711876459267e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.024040800574828e-05</v>
+        <v>-10.24040802841279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4672044797678258</v>
+        <v>0.4672044787257759</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.71418271496471</v>
+        <v>19.71418271496347</v>
       </c>
       <c r="C15" t="n">
-        <v>9.334402684600882e-21</v>
+        <v>9.334402684652657e-21</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2112.208825861909</v>
+        <v>-21.12208825862001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.737410221792097e-08</v>
+        <v>1.737410221789685e-08</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1021.451760982004</v>
+        <v>-10.21451760982053</v>
       </c>
       <c r="C17" t="n">
-        <v>7.368076070318396e-05</v>
+        <v>7.368076070312961e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4434.152528589163</v>
+        <v>4434.152528046779</v>
       </c>
       <c r="C2" t="n">
-        <v>2.989100340536148e-11</v>
+        <v>2.989100156636285e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-272.17606752957</v>
+        <v>-272.1760675105394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6733103960826017</v>
+        <v>0.6733103960818283</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.9950199030217</v>
+        <v>232.9950199668498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6899997065521939</v>
+        <v>0.6899997064032816</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974.7509882364629</v>
+        <v>974.7509882562609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09490748574080027</v>
+        <v>0.09490748571025524</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.295845859621068</v>
+        <v>6.29584586101123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.956722252880932</v>
+        <v>0.9567222528714143</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-237.3389473825407</v>
+        <v>-237.3389473809784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01728113721835618</v>
+        <v>0.01728113721919165</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.96724847998881</v>
+        <v>74.96724847520312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009708257783981019</v>
+        <v>0.009708257788229039</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1278.844086016856</v>
+        <v>-1278.844086027451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.812726288843821e-64</v>
+        <v>1.812726277759286e-64</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-28.69279492128251</v>
+        <v>-28.69279492040187</v>
       </c>
       <c r="C10" t="n">
-        <v>1.44411234520529e-18</v>
+        <v>1.444112351806453e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.9544776715521</v>
+        <v>208.9544776757567</v>
       </c>
       <c r="C11" t="n">
-        <v>2.188461371355808e-24</v>
+        <v>2.188461367410899e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.8752980738983</v>
+        <v>487.8752980836296</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04403348836530528</v>
+        <v>-4.403348835990748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002554856146899614</v>
+        <v>0.0002554856152245222</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.216351220535211e-05</v>
+        <v>-12.16351201809295</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3959983145323845</v>
+        <v>0.3959983214960485</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.84808268720536</v>
+        <v>22.84808268720391</v>
       </c>
       <c r="C15" t="n">
-        <v>6.720048821400636e-28</v>
+        <v>6.720048821458498e-28</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1902.974230572288</v>
+        <v>-19.02974230572393</v>
       </c>
       <c r="C16" t="n">
-        <v>4.25926006968432e-07</v>
+        <v>4.259260069678274e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-948.5936062404819</v>
+        <v>-9.485936062405054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002602017987684033</v>
+        <v>0.0002602017987683111</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4470.605061289488</v>
+        <v>4470.60506122847</v>
       </c>
       <c r="C2" t="n">
-        <v>9.454050121191386e-12</v>
+        <v>9.454050075978792e-12</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-387.9118597628981</v>
+        <v>-387.9118596978801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5426307810015889</v>
+        <v>0.5426307810029127</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3203863008182</v>
+        <v>262.3203863467107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6458242815323549</v>
+        <v>0.645824281435988</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.4595287718888</v>
+        <v>943.4595288396813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.098026260592917</v>
+        <v>0.09802626051059511</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.197388357715909</v>
+        <v>-5.19738838410899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9645839636360383</v>
+        <v>0.9645839634560395</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-207.1189161884695</v>
+        <v>-207.1189161954683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03902282733817476</v>
+        <v>0.03902282733109683</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116.5297604484192</v>
+        <v>116.5297604553407</v>
       </c>
       <c r="C8" t="n">
-        <v>6.414407518595039e-05</v>
+        <v>6.414407512782256e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1257.030660679742</v>
+        <v>-1257.03066069113</v>
       </c>
       <c r="C9" t="n">
-        <v>3.992180888221054e-62</v>
+        <v>3.992180869370147e-62</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.12876078380984</v>
+        <v>-30.12876078326283</v>
       </c>
       <c r="C10" t="n">
-        <v>3.279575310469123e-20</v>
+        <v>3.279575318715934e-20</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232.1092773733041</v>
+        <v>232.1092773298911</v>
       </c>
       <c r="C11" t="n">
-        <v>5.303981698724249e-29</v>
+        <v>5.303981822521511e-29</v>
       </c>
     </row>
     <row r="12">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>489.7900030358966</v>
+        <v>489.7900030455986</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05707581468451602</v>
+        <v>-5.707581470152615</v>
       </c>
       <c r="C13" t="n">
-        <v>1.747621648213703e-06</v>
+        <v>1.747621633958681e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.062843990407153e-06</v>
+        <v>4.062843931040462</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7739237313976197</v>
+        <v>0.7739237346116852</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.96638629280612</v>
+        <v>19.96638629280476</v>
       </c>
       <c r="C15" t="n">
-        <v>1.096746626565387e-21</v>
+        <v>1.096746626572728e-21</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1702.531338139518</v>
+        <v>-17.02531338139627</v>
       </c>
       <c r="C16" t="n">
-        <v>6.628982919907713e-06</v>
+        <v>6.628982919898468e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-729.5365642771851</v>
+        <v>-7.295365642772268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005293833061032397</v>
+        <v>0.005293833061029793</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5330.240436391769</v>
+        <v>5330.240435920206</v>
       </c>
       <c r="C2" t="n">
-        <v>5.257329139629555e-16</v>
+        <v>5.257328973091086e-16</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-620.412249972472</v>
+        <v>-620.4122499158236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3295344625728279</v>
+        <v>0.3295344625729206</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-429.1304821543889</v>
+        <v>-429.1304819968852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.455672032873651</v>
+        <v>0.4556720329256692</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>353.5256298349855</v>
+        <v>353.5256298709184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5383973616226482</v>
+        <v>0.5383973615580055</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-160.5817944861521</v>
+        <v>-160.5817944853914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.166844290965651</v>
+        <v>0.166844290967725</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-326.6185708578657</v>
+        <v>-326.6185708587705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00104453396434151</v>
+        <v>0.00104453396430517</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.88897539995452</v>
+        <v>77.8889754078608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006629469420090867</v>
+        <v>0.006629469414878764</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1268.012425821067</v>
+        <v>-1268.012425811169</v>
       </c>
       <c r="C9" t="n">
-        <v>1.870454006245346e-64</v>
+        <v>1.870454012765201e-64</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-29.07859243764214</v>
+        <v>-29.0785924377949</v>
       </c>
       <c r="C10" t="n">
-        <v>2.835532072557841e-19</v>
+        <v>2.835532070801096e-19</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.7244468047562</v>
+        <v>207.7244468089455</v>
       </c>
       <c r="C11" t="n">
-        <v>4.837842116607103e-24</v>
+        <v>4.837842106704374e-24</v>
       </c>
     </row>
     <row r="12">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>496.9141417469834</v>
+        <v>496.9141417526545</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04953344746280223</v>
+        <v>-4.953344746235825</v>
       </c>
       <c r="C13" t="n">
-        <v>3.069168947776954e-05</v>
+        <v>3.069168948319165e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.55280147120031e-06</v>
+        <v>-5.552801677179758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6930012614805374</v>
+        <v>0.6930012506222846</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.63935863027925</v>
+        <v>20.63935863027814</v>
       </c>
       <c r="C15" t="n">
-        <v>3.767875630781358e-23</v>
+        <v>3.767875630801016e-23</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1931.724780269601</v>
+        <v>-19.31724780269701</v>
       </c>
       <c r="C16" t="n">
-        <v>2.153244312666102e-07</v>
+        <v>2.153244312663011e-07</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-938.1338442671666</v>
+        <v>-9.381338442672119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000270557132082621</v>
+        <v>0.0002705571320824432</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4948.774379678331</v>
+        <v>4948.774379374672</v>
       </c>
       <c r="C2" t="n">
-        <v>5.819785775611158e-13</v>
+        <v>5.819785641224958e-13</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-464.4024591230505</v>
+        <v>-464.40245911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4873873289103468</v>
+        <v>0.4873873289103406</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-370.1110288586219</v>
+        <v>-370.1110288694845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5418842439111959</v>
+        <v>0.5418842439086979</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.3315285208589</v>
+        <v>388.3315284954535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5216965324180717</v>
+        <v>0.5216965324679237</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124.9932191514122</v>
+        <v>-124.9932191562891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2801493990261398</v>
+        <v>0.2801493990070944</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-251.5798958054388</v>
+        <v>-251.5798958041532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01126157862665861</v>
+        <v>0.01126157862709562</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.5294362048829</v>
+        <v>114.5294362129656</v>
       </c>
       <c r="C8" t="n">
-        <v>6.593560122337742e-05</v>
+        <v>6.593560115113531e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1229.454883298102</v>
+        <v>-1229.454883298238</v>
       </c>
       <c r="C9" t="n">
-        <v>7.565787787751111e-61</v>
+        <v>7.565787787371049e-61</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.18382797184498</v>
+        <v>-31.18382797524335</v>
       </c>
       <c r="C10" t="n">
-        <v>4.290151301413864e-22</v>
+        <v>4.290151234644007e-22</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.1045657084144</v>
+        <v>244.1045656746244</v>
       </c>
       <c r="C11" t="n">
-        <v>3.353530381134353e-32</v>
+        <v>3.353530448325781e-32</v>
       </c>
     </row>
     <row r="12">
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>492.2222581400159</v>
+        <v>492.2222581470833</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04372547726235526</v>
+        <v>-4.372547725310465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002420151702632389</v>
+        <v>0.0002420151710663439</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.56871260519353e-06</v>
+        <v>-4.568712328466631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7467162034970483</v>
+        <v>0.7467162180979399</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.44743945008448</v>
+        <v>21.44743945008336</v>
       </c>
       <c r="C15" t="n">
-        <v>3.568977092807568e-24</v>
+        <v>3.568977092826795e-24</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1769.067446826506</v>
+        <v>-17.69067446826611</v>
       </c>
       <c r="C16" t="n">
-        <v>2.08506060737436e-06</v>
+        <v>2.085060607371475e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-867.9896398946451</v>
+        <v>-8.679896398946637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00077554611462132</v>
+        <v>0.0007755461146211135</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4294.865892111529</v>
+        <v>4294.865892758133</v>
       </c>
       <c r="C2" t="n">
-        <v>1.135652535687008e-10</v>
+        <v>1.135652459924512e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.2994154451625</v>
+        <v>342.2994154404691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5991505093045792</v>
+        <v>0.5991505093039667</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>806.733589743108</v>
+        <v>806.7335896560858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1682651295837085</v>
+        <v>0.1682651295223818</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.631059860695</v>
+        <v>1634.631059857684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005203472270751468</v>
+        <v>0.005203472270444821</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83.52100161925478</v>
+        <v>-83.5210016188239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471066830085253</v>
+        <v>0.4710668300874802</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-215.7972702458153</v>
+        <v>-215.7972702490492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02975174212950088</v>
+        <v>0.02975174212723514</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.9430726903044</v>
+        <v>100.9430726811136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004638240907332508</v>
+        <v>0.0004638240913559872</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1217.418965556516</v>
+        <v>-1217.418965562514</v>
       </c>
       <c r="C9" t="n">
-        <v>1.668077735439301e-59</v>
+        <v>1.668077735374772e-59</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.07482439976537</v>
+        <v>-30.07482440017092</v>
       </c>
       <c r="C10" t="n">
-        <v>2.14716551668145e-20</v>
+        <v>2.147165516398945e-20</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.5523416602063</v>
+        <v>216.5523416967588</v>
       </c>
       <c r="C11" t="n">
-        <v>9.337930926484955e-26</v>
+        <v>9.337930736951866e-26</v>
       </c>
     </row>
     <row r="12">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>485.4570290907611</v>
+        <v>485.4570290709383</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04064940148482991</v>
+        <v>-4.064940150611308</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006296619988801997</v>
+        <v>0.0006296619953691241</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.053995063349468e-05</v>
+        <v>-20.53995049373557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1451371894048717</v>
+        <v>0.1451371920083793</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.60068000654254</v>
+        <v>19.60068000654108</v>
       </c>
       <c r="C15" t="n">
-        <v>3.940889026226238e-21</v>
+        <v>3.940889026253416e-21</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2157.087584133914</v>
+        <v>-21.57087584134022</v>
       </c>
       <c r="C16" t="n">
-        <v>8.115798133857146e-09</v>
+        <v>8.115798133843385e-09</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1366.868699354145</v>
+        <v>-13.66868699354161</v>
       </c>
       <c r="C17" t="n">
-        <v>1.136424905356178e-07</v>
+        <v>1.136424905355753e-07</v>
       </c>
     </row>
   </sheetData>
